--- a/Admin/ESS_575_student_information.xlsx
+++ b/Admin/ESS_575_student_information.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="7120" yWindow="20" windowWidth="38320" windowHeight="23560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -37,7 +37,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
   <si>
     <t>Name</t>
   </si>
@@ -114,15 +114,6 @@
   </si>
   <si>
     <t>Steve Ogle</t>
-  </si>
-  <si>
-    <t>Shelby McClelland</t>
-  </si>
-  <si>
-    <t>Agriculture, Soil, Biogeochemistry</t>
-  </si>
-  <si>
-    <t>Meagan Schipanski</t>
   </si>
   <si>
     <t>Steven Lakin</t>
@@ -316,12 +307,45 @@
   <si>
     <t>Claudia Boot</t>
   </si>
+  <si>
+    <t>Aung Chan</t>
+  </si>
+  <si>
+    <t>Animal Movement, Occupancy Modeling, Resource selection, Large Mammal Ecology</t>
+  </si>
+  <si>
+    <t>Lab Group</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -331,6 +355,22 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -507,10 +547,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -544,10 +596,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -568,8 +620,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -902,48 +969,51 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" customWidth="1"/>
-    <col min="6" max="26" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" customWidth="1"/>
+    <col min="7" max="26" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="44.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -965,16 +1035,16 @@
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
+      <c r="B2" t="s">
+        <v>80</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
+      <c r="C2" s="6" t="s">
+        <v>32</v>
       </c>
-      <c r="D2" s="18">
-        <v>4</v>
+      <c r="D2" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E2" s="7">
         <v>3</v>
@@ -983,9 +1053,11 @@
         <v>3</v>
       </c>
       <c r="G2" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="7">
+        <v>2</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1009,25 +1081,27 @@
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7">
-        <v>4</v>
-      </c>
       <c r="E3" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" s="7">
         <v>3</v>
       </c>
       <c r="G3" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="7">
+        <v>2</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1048,28 +1122,30 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>34</v>
+      <c r="A4" s="14" t="s">
+        <v>63</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>35</v>
+      <c r="B4" t="s">
+        <v>80</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>22</v>
+      <c r="C4" s="6" t="s">
+        <v>64</v>
       </c>
-      <c r="D4" s="7">
-        <v>3</v>
+      <c r="D4" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E4" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="7">
         <v>2</v>
       </c>
       <c r="G4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1091,16 +1167,16 @@
     </row>
     <row r="5" spans="1:26" ht="19.5" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>40</v>
+      <c r="B5" t="s">
+        <v>85</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>41</v>
+      <c r="C5" s="6" t="s">
+        <v>34</v>
       </c>
-      <c r="D5" s="7">
-        <v>3</v>
+      <c r="D5" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="E5" s="7">
         <v>3</v>
@@ -1109,9 +1185,11 @@
         <v>3</v>
       </c>
       <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7">
         <v>3</v>
       </c>
-      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1132,28 +1210,30 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A6" s="16" t="s">
-        <v>72</v>
+      <c r="A6" s="5" t="s">
+        <v>51</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>73</v>
+      <c r="B6" t="s">
+        <v>85</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>74</v>
+      <c r="C6" s="6" t="s">
+        <v>52</v>
       </c>
-      <c r="D6" s="7">
-        <v>3</v>
+      <c r="D6" s="7" t="s">
+        <v>53</v>
       </c>
-      <c r="E6" s="7">
-        <v>3</v>
+      <c r="E6" s="18">
+        <v>2</v>
       </c>
       <c r="F6" s="7">
         <v>2</v>
       </c>
       <c r="G6" s="7">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1175,27 +1255,29 @@
     </row>
     <row r="7" spans="1:26" ht="27" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>43</v>
+      <c r="B7" t="s">
+        <v>85</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>44</v>
+      <c r="C7" s="6" t="s">
+        <v>67</v>
       </c>
-      <c r="D7" s="7">
-        <v>3</v>
+      <c r="D7" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="7">
         <v>3</v>
       </c>
       <c r="G7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1217,27 +1299,29 @@
     </row>
     <row r="8" spans="1:26" ht="26.25" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>24</v>
+      <c r="B8" t="s">
+        <v>79</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>25</v>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
       </c>
-      <c r="D8" s="7">
-        <v>3</v>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="E8" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="7">
         <v>4</v>
       </c>
       <c r="G8" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="7">
+        <v>3</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1259,27 +1343,29 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>37</v>
+      <c r="B9" t="s">
+        <v>79</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>38</v>
+      <c r="C9" s="6" t="s">
+        <v>58</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7">
         <v>3</v>
       </c>
-      <c r="E9" s="7">
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
+      <c r="H9" s="7">
         <v>3</v>
       </c>
-      <c r="F9" s="7">
-        <v>2</v>
-      </c>
-      <c r="G9" s="7">
-        <v>3</v>
-      </c>
-      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1301,19 +1387,19 @@
     </row>
     <row r="10" spans="1:26" ht="27" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
+      <c r="B10" t="s">
+        <v>79</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>13</v>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
       </c>
-      <c r="D10" s="7">
-        <v>3</v>
+      <c r="D10" s="7" t="s">
+        <v>19</v>
       </c>
-      <c r="E10" s="7">
-        <v>3</v>
+      <c r="E10" s="18">
+        <v>2</v>
       </c>
       <c r="F10" s="7">
         <v>2</v>
@@ -1321,7 +1407,9 @@
       <c r="G10" s="7">
         <v>3</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1343,27 +1431,29 @@
     </row>
     <row r="11" spans="1:26" ht="27" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>55</v>
+      <c r="B11" t="s">
+        <v>81</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>56</v>
+      <c r="C11" s="6" t="s">
+        <v>37</v>
       </c>
-      <c r="D11" s="18">
-        <v>2</v>
+      <c r="D11" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="7">
         <v>3</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1385,27 +1475,29 @@
     </row>
     <row r="12" spans="1:26" ht="30" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>21</v>
+      <c r="B12" t="s">
+        <v>81</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>22</v>
+      <c r="C12" s="6" t="s">
+        <v>46</v>
       </c>
-      <c r="D12" s="18">
-        <v>2</v>
+      <c r="D12" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="E12" s="7">
         <v>2</v>
       </c>
       <c r="F12" s="7">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
+      <c r="H12" s="7">
         <v>3</v>
       </c>
-      <c r="G12" s="7">
-        <v>3</v>
-      </c>
-      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1426,28 +1518,30 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="30.75" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>51</v>
+      <c r="A13" s="14" t="s">
+        <v>60</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>52</v>
+      <c r="B13" t="s">
+        <v>81</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>53</v>
+      <c r="C13" s="6" t="s">
+        <v>61</v>
       </c>
-      <c r="D13" s="18">
-        <v>2</v>
+      <c r="D13" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="E13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="7">
         <v>2</v>
       </c>
       <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1468,28 +1562,30 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="33" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>17</v>
+      <c r="A14" s="16" t="s">
+        <v>69</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>18</v>
+      <c r="B14" t="s">
+        <v>82</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>19</v>
+      <c r="C14" s="6" t="s">
+        <v>70</v>
       </c>
-      <c r="D14" s="7">
-        <v>2</v>
+      <c r="D14" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="E14" s="7">
         <v>3</v>
       </c>
       <c r="F14" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" s="7">
         <v>2</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1511,27 +1607,29 @@
     </row>
     <row r="15" spans="1:26" ht="19.5" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>61</v>
+      <c r="B15" t="s">
+        <v>82</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>62</v>
+      <c r="C15" s="6" t="s">
+        <v>43</v>
       </c>
-      <c r="D15" s="7">
-        <v>2</v>
+      <c r="D15" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E15" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1555,25 +1653,27 @@
       <c r="A16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="7">
-        <v>2</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="E16" s="18">
         <v>2</v>
       </c>
       <c r="F16" s="7">
+        <v>3</v>
+      </c>
+      <c r="G16" s="7">
         <v>2</v>
       </c>
-      <c r="G16" s="7">
+      <c r="H16" s="7">
         <v>3</v>
       </c>
-      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1595,27 +1695,29 @@
     </row>
     <row r="17" spans="1:26" ht="27" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>32</v>
+      <c r="B17" t="s">
+        <v>78</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>33</v>
+      <c r="C17" s="6" t="s">
+        <v>9</v>
       </c>
-      <c r="D17" s="7">
-        <v>2</v>
+      <c r="D17" s="7" t="s">
+        <v>10</v>
       </c>
-      <c r="E17" s="7">
-        <v>3</v>
+      <c r="E17" s="18">
+        <v>4</v>
       </c>
       <c r="F17" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="7">
         <v>3</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1636,28 +1738,30 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>57</v>
+      <c r="A18" s="16" t="s">
+        <v>75</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>58</v>
+      <c r="B18" t="s">
+        <v>78</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>59</v>
+      <c r="C18" s="6" t="s">
+        <v>76</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="19">
         <v>2</v>
       </c>
-      <c r="E18" s="7">
+      <c r="F18" s="19">
         <v>2</v>
       </c>
-      <c r="F18" s="7">
+      <c r="G18" s="19">
         <v>2</v>
       </c>
-      <c r="G18" s="7">
+      <c r="H18" s="19">
         <v>3</v>
       </c>
-      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1678,28 +1782,30 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="27" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>66</v>
+      <c r="A19" s="5" t="s">
+        <v>26</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>67</v>
+      <c r="B19" t="s">
+        <v>78</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>68</v>
+      <c r="C19" s="6" t="s">
+        <v>27</v>
       </c>
-      <c r="D19" s="7">
-        <v>2</v>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="E19" s="7">
         <v>2</v>
       </c>
       <c r="F19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1721,16 +1827,16 @@
     </row>
     <row r="20" spans="1:26" ht="33" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>70</v>
+      <c r="B20" t="s">
+        <v>84</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>71</v>
+      <c r="C20" s="9" t="s">
+        <v>21</v>
       </c>
-      <c r="D20" s="10">
-        <v>2</v>
+      <c r="D20" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="E20" s="10">
         <v>3</v>
@@ -1739,9 +1845,11 @@
         <v>2</v>
       </c>
       <c r="G20" s="10">
+        <v>4</v>
+      </c>
+      <c r="H20" s="10">
         <v>2</v>
       </c>
-      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1762,28 +1870,30 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A21" s="11" t="s">
-        <v>63</v>
+      <c r="A21" s="15" t="s">
+        <v>28</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>64</v>
+      <c r="B21" t="s">
+        <v>84</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>65</v>
+      <c r="C21" s="11" t="s">
+        <v>29</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="11">
         <v>2</v>
       </c>
-      <c r="E21" s="12">
+      <c r="F21" s="11">
+        <v>3</v>
+      </c>
+      <c r="G21" s="11">
         <v>2</v>
       </c>
-      <c r="F21" s="12">
-        <v>1</v>
-      </c>
-      <c r="G21" s="12">
+      <c r="H21" s="11">
         <v>3</v>
       </c>
-      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1804,28 +1914,30 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A22" s="15" t="s">
-        <v>29</v>
+      <c r="A22" s="13" t="s">
+        <v>23</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>30</v>
+      <c r="B22" t="s">
+        <v>84</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>7</v>
+      <c r="C22" s="11" t="s">
+        <v>24</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="11">
         <v>2</v>
       </c>
-      <c r="E22" s="12">
-        <v>2</v>
+      <c r="F22" s="11">
+        <v>3</v>
       </c>
-      <c r="F22" s="12">
-        <v>2</v>
+      <c r="G22" s="11">
+        <v>3</v>
       </c>
-      <c r="G22" s="12">
-        <v>2</v>
+      <c r="H22" s="11">
+        <v>4</v>
       </c>
-      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1846,28 +1958,30 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A23" s="13" t="s">
-        <v>26</v>
+      <c r="A23" s="15" t="s">
+        <v>39</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>27</v>
+      <c r="B23" t="s">
+        <v>83</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>28</v>
+      <c r="C23" s="11" t="s">
+        <v>40</v>
       </c>
-      <c r="D23" s="12">
-        <v>2</v>
+      <c r="D23" s="11" t="s">
+        <v>41</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <v>3</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <v>3</v>
       </c>
-      <c r="G23" s="12">
-        <v>4</v>
+      <c r="G23" s="11">
+        <v>3</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="11">
+        <v>3</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1888,28 +2002,30 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A24" s="12" t="s">
-        <v>75</v>
+      <c r="A24" s="13" t="s">
+        <v>54</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>76</v>
+      <c r="B24" t="s">
+        <v>83</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>77</v>
+      <c r="C24" s="17" t="s">
+        <v>55</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="17">
         <v>2</v>
       </c>
-      <c r="E24" s="12">
+      <c r="F24" s="17">
+        <v>2</v>
+      </c>
+      <c r="G24" s="17">
+        <v>2</v>
+      </c>
+      <c r="H24" s="17">
         <v>3</v>
       </c>
-      <c r="F24" s="12">
-        <v>2</v>
-      </c>
-      <c r="G24" s="12">
-        <v>3</v>
-      </c>
-      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1930,28 +2046,30 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A25" s="13" t="s">
-        <v>45</v>
+      <c r="A25" s="17" t="s">
+        <v>72</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>46</v>
+      <c r="B25" t="s">
+        <v>83</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
-      <c r="D25" s="17">
-        <v>1</v>
+      <c r="D25" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="E25" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="17">
+        <v>3</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1973,7 +2091,6 @@
     </row>
     <row r="26" spans="1:26" ht="19.5" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2001,7 +2118,6 @@
     </row>
     <row r="27" spans="1:26" ht="19.5" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2029,7 +2145,6 @@
     </row>
     <row r="28" spans="1:26" ht="19.5" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2057,7 +2172,6 @@
     </row>
     <row r="29" spans="1:26" ht="19.5" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2085,7 +2199,6 @@
     </row>
     <row r="30" spans="1:26" ht="19.5" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2113,7 +2226,6 @@
     </row>
     <row r="31" spans="1:26" ht="19.5" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2141,7 +2253,6 @@
     </row>
     <row r="32" spans="1:26" ht="19.5" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2169,7 +2280,6 @@
     </row>
     <row r="33" spans="1:26" ht="19.5" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2197,7 +2307,6 @@
     </row>
     <row r="34" spans="1:26" ht="19.5" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2225,7 +2334,6 @@
     </row>
     <row r="35" spans="1:26" ht="19.5" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2253,7 +2361,6 @@
     </row>
     <row r="36" spans="1:26" ht="19.5" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2281,7 +2388,6 @@
     </row>
     <row r="37" spans="1:26" ht="19.5" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2309,7 +2415,6 @@
     </row>
     <row r="38" spans="1:26" ht="19.5" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2337,7 +2442,6 @@
     </row>
     <row r="39" spans="1:26" ht="19.5" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2365,7 +2469,6 @@
     </row>
     <row r="40" spans="1:26" ht="19.5" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2393,7 +2496,6 @@
     </row>
     <row r="41" spans="1:26" ht="19.5" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2421,7 +2523,6 @@
     </row>
     <row r="42" spans="1:26" ht="19.5" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2449,7 +2550,6 @@
     </row>
     <row r="43" spans="1:26" ht="19.5" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2477,7 +2577,6 @@
     </row>
     <row r="44" spans="1:26" ht="19.5" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2505,7 +2604,6 @@
     </row>
     <row r="45" spans="1:26" ht="19.5" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2533,7 +2631,6 @@
     </row>
     <row r="46" spans="1:26" ht="19.5" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2561,7 +2658,6 @@
     </row>
     <row r="47" spans="1:26" ht="19.5" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2589,7 +2685,6 @@
     </row>
     <row r="48" spans="1:26" ht="19.5" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2617,7 +2712,6 @@
     </row>
     <row r="49" spans="1:26" ht="19.5" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2645,7 +2739,6 @@
     </row>
     <row r="50" spans="1:26" ht="19.5" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2673,7 +2766,6 @@
     </row>
     <row r="51" spans="1:26" ht="19.5" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2701,7 +2793,6 @@
     </row>
     <row r="52" spans="1:26" ht="19.5" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2729,7 +2820,6 @@
     </row>
     <row r="53" spans="1:26" ht="19.5" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2757,7 +2847,6 @@
     </row>
     <row r="54" spans="1:26" ht="19.5" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2785,7 +2874,6 @@
     </row>
     <row r="55" spans="1:26" ht="19.5" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2813,7 +2901,6 @@
     </row>
     <row r="56" spans="1:26" ht="19.5" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2841,7 +2928,6 @@
     </row>
     <row r="57" spans="1:26" ht="19.5" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2869,7 +2955,6 @@
     </row>
     <row r="58" spans="1:26" ht="19.5" customHeight="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2897,7 +2982,6 @@
     </row>
     <row r="59" spans="1:26" ht="19.5" customHeight="1">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2925,7 +3009,6 @@
     </row>
     <row r="60" spans="1:26" ht="19.5" customHeight="1">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2953,7 +3036,6 @@
     </row>
     <row r="61" spans="1:26" ht="19.5" customHeight="1">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2981,7 +3063,6 @@
     </row>
     <row r="62" spans="1:26" ht="19.5" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -3009,7 +3090,6 @@
     </row>
     <row r="63" spans="1:26" ht="19.5" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -3037,7 +3117,6 @@
     </row>
     <row r="64" spans="1:26" ht="19.5" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3065,7 +3144,6 @@
     </row>
     <row r="65" spans="1:26" ht="19.5" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -3093,7 +3171,6 @@
     </row>
     <row r="66" spans="1:26" ht="19.5" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3121,7 +3198,6 @@
     </row>
     <row r="67" spans="1:26" ht="19.5" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -3149,7 +3225,6 @@
     </row>
     <row r="68" spans="1:26" ht="19.5" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -3177,7 +3252,6 @@
     </row>
     <row r="69" spans="1:26" ht="19.5" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -3205,7 +3279,6 @@
     </row>
     <row r="70" spans="1:26" ht="19.5" customHeight="1">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3233,7 +3306,6 @@
     </row>
     <row r="71" spans="1:26" ht="19.5" customHeight="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3261,7 +3333,6 @@
     </row>
     <row r="72" spans="1:26" ht="19.5" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3289,7 +3360,6 @@
     </row>
     <row r="73" spans="1:26" ht="19.5" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3317,7 +3387,6 @@
     </row>
     <row r="74" spans="1:26" ht="19.5" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -3345,7 +3414,6 @@
     </row>
     <row r="75" spans="1:26" ht="19.5" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3373,7 +3441,6 @@
     </row>
     <row r="76" spans="1:26" ht="19.5" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3401,7 +3468,6 @@
     </row>
     <row r="77" spans="1:26" ht="19.5" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3429,7 +3495,6 @@
     </row>
     <row r="78" spans="1:26" ht="19.5" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3457,7 +3522,6 @@
     </row>
     <row r="79" spans="1:26" ht="19.5" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3485,7 +3549,6 @@
     </row>
     <row r="80" spans="1:26" ht="19.5" customHeight="1">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3513,7 +3576,6 @@
     </row>
     <row r="81" spans="1:26" ht="19.5" customHeight="1">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3541,7 +3603,6 @@
     </row>
     <row r="82" spans="1:26" ht="19.5" customHeight="1">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3569,7 +3630,6 @@
     </row>
     <row r="83" spans="1:26" ht="19.5" customHeight="1">
       <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3597,7 +3657,6 @@
     </row>
     <row r="84" spans="1:26" ht="19.5" customHeight="1">
       <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3625,7 +3684,6 @@
     </row>
     <row r="85" spans="1:26" ht="19.5" customHeight="1">
       <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3653,7 +3711,6 @@
     </row>
     <row r="86" spans="1:26" ht="19.5" customHeight="1">
       <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3681,7 +3738,6 @@
     </row>
     <row r="87" spans="1:26" ht="19.5" customHeight="1">
       <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3709,7 +3765,6 @@
     </row>
     <row r="88" spans="1:26" ht="19.5" customHeight="1">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3737,7 +3792,6 @@
     </row>
     <row r="89" spans="1:26" ht="19.5" customHeight="1">
       <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3765,7 +3819,6 @@
     </row>
     <row r="90" spans="1:26" ht="19.5" customHeight="1">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3793,7 +3846,6 @@
     </row>
     <row r="91" spans="1:26" ht="19.5" customHeight="1">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -3821,7 +3873,6 @@
     </row>
     <row r="92" spans="1:26" ht="19.5" customHeight="1">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -3849,7 +3900,6 @@
     </row>
     <row r="93" spans="1:26" ht="19.5" customHeight="1">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -3877,7 +3927,6 @@
     </row>
     <row r="94" spans="1:26" ht="19.5" customHeight="1">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -3905,7 +3954,6 @@
     </row>
     <row r="95" spans="1:26" ht="19.5" customHeight="1">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -3933,7 +3981,6 @@
     </row>
     <row r="96" spans="1:26" ht="19.5" customHeight="1">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -3961,7 +4008,6 @@
     </row>
     <row r="97" spans="1:26" ht="19.5" customHeight="1">
       <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -3989,7 +4035,6 @@
     </row>
     <row r="98" spans="1:26" ht="19.5" customHeight="1">
       <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -4017,7 +4062,6 @@
     </row>
     <row r="99" spans="1:26" ht="19.5" customHeight="1">
       <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -4045,7 +4089,6 @@
     </row>
     <row r="100" spans="1:26" ht="19.5" customHeight="1">
       <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -4073,7 +4116,6 @@
     </row>
     <row r="101" spans="1:26" ht="19.5" customHeight="1">
       <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4101,7 +4143,6 @@
     </row>
     <row r="102" spans="1:26" ht="19.5" customHeight="1">
       <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4129,7 +4170,6 @@
     </row>
     <row r="103" spans="1:26" ht="19.5" customHeight="1">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -4157,7 +4197,6 @@
     </row>
     <row r="104" spans="1:26" ht="19.5" customHeight="1">
       <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -4185,7 +4224,6 @@
     </row>
     <row r="105" spans="1:26" ht="19.5" customHeight="1">
       <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -4213,7 +4251,6 @@
     </row>
     <row r="106" spans="1:26" ht="19.5" customHeight="1">
       <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -4241,7 +4278,6 @@
     </row>
     <row r="107" spans="1:26" ht="19.5" customHeight="1">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -4269,7 +4305,6 @@
     </row>
     <row r="108" spans="1:26" ht="19.5" customHeight="1">
       <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -4297,7 +4332,6 @@
     </row>
     <row r="109" spans="1:26" ht="19.5" customHeight="1">
       <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -4325,7 +4359,6 @@
     </row>
     <row r="110" spans="1:26" ht="19.5" customHeight="1">
       <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -4353,7 +4386,6 @@
     </row>
     <row r="111" spans="1:26" ht="19.5" customHeight="1">
       <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -4381,7 +4413,6 @@
     </row>
     <row r="112" spans="1:26" ht="19.5" customHeight="1">
       <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -4409,7 +4440,6 @@
     </row>
     <row r="113" spans="1:26" ht="19.5" customHeight="1">
       <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -4437,7 +4467,6 @@
     </row>
     <row r="114" spans="1:26" ht="19.5" customHeight="1">
       <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -4465,7 +4494,6 @@
     </row>
     <row r="115" spans="1:26" ht="19.5" customHeight="1">
       <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -4493,7 +4521,6 @@
     </row>
     <row r="116" spans="1:26" ht="19.5" customHeight="1">
       <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -4521,7 +4548,6 @@
     </row>
     <row r="117" spans="1:26" ht="19.5" customHeight="1">
       <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -4549,7 +4575,6 @@
     </row>
     <row r="118" spans="1:26" ht="19.5" customHeight="1">
       <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -4577,7 +4602,6 @@
     </row>
     <row r="119" spans="1:26" ht="19.5" customHeight="1">
       <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -4605,7 +4629,6 @@
     </row>
     <row r="120" spans="1:26" ht="19.5" customHeight="1">
       <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -4633,7 +4656,6 @@
     </row>
     <row r="121" spans="1:26" ht="19.5" customHeight="1">
       <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -4661,7 +4683,6 @@
     </row>
     <row r="122" spans="1:26" ht="19.5" customHeight="1">
       <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -4689,7 +4710,6 @@
     </row>
     <row r="123" spans="1:26" ht="19.5" customHeight="1">
       <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -4717,7 +4737,6 @@
     </row>
     <row r="124" spans="1:26" ht="19.5" customHeight="1">
       <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -4745,7 +4764,6 @@
     </row>
     <row r="125" spans="1:26" ht="19.5" customHeight="1">
       <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -4773,7 +4791,6 @@
     </row>
     <row r="126" spans="1:26" ht="19.5" customHeight="1">
       <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -4801,7 +4818,6 @@
     </row>
     <row r="127" spans="1:26" ht="19.5" customHeight="1">
       <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -4829,7 +4845,6 @@
     </row>
     <row r="128" spans="1:26" ht="19.5" customHeight="1">
       <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -4857,7 +4872,6 @@
     </row>
     <row r="129" spans="1:26" ht="19.5" customHeight="1">
       <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -4885,7 +4899,6 @@
     </row>
     <row r="130" spans="1:26" ht="19.5" customHeight="1">
       <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -4913,7 +4926,6 @@
     </row>
     <row r="131" spans="1:26" ht="19.5" customHeight="1">
       <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -4941,7 +4953,6 @@
     </row>
     <row r="132" spans="1:26" ht="19.5" customHeight="1">
       <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -4969,7 +4980,6 @@
     </row>
     <row r="133" spans="1:26" ht="19.5" customHeight="1">
       <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -4997,7 +5007,6 @@
     </row>
     <row r="134" spans="1:26" ht="19.5" customHeight="1">
       <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -5025,7 +5034,6 @@
     </row>
     <row r="135" spans="1:26" ht="19.5" customHeight="1">
       <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -5053,7 +5061,6 @@
     </row>
     <row r="136" spans="1:26" ht="19.5" customHeight="1">
       <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -5081,7 +5088,6 @@
     </row>
     <row r="137" spans="1:26" ht="19.5" customHeight="1">
       <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -5109,7 +5115,6 @@
     </row>
     <row r="138" spans="1:26" ht="19.5" customHeight="1">
       <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -5137,7 +5142,6 @@
     </row>
     <row r="139" spans="1:26" ht="19.5" customHeight="1">
       <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -5165,7 +5169,6 @@
     </row>
     <row r="140" spans="1:26" ht="19.5" customHeight="1">
       <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -5193,7 +5196,6 @@
     </row>
     <row r="141" spans="1:26" ht="19.5" customHeight="1">
       <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -5221,7 +5223,6 @@
     </row>
     <row r="142" spans="1:26" ht="19.5" customHeight="1">
       <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -5249,7 +5250,6 @@
     </row>
     <row r="143" spans="1:26" ht="19.5" customHeight="1">
       <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -5277,7 +5277,6 @@
     </row>
     <row r="144" spans="1:26" ht="19.5" customHeight="1">
       <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -5305,7 +5304,6 @@
     </row>
     <row r="145" spans="1:26" ht="19.5" customHeight="1">
       <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -5333,7 +5331,6 @@
     </row>
     <row r="146" spans="1:26" ht="19.5" customHeight="1">
       <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -5361,7 +5358,6 @@
     </row>
     <row r="147" spans="1:26" ht="19.5" customHeight="1">
       <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -5389,7 +5385,6 @@
     </row>
     <row r="148" spans="1:26" ht="19.5" customHeight="1">
       <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -5417,7 +5412,6 @@
     </row>
     <row r="149" spans="1:26" ht="19.5" customHeight="1">
       <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -5445,7 +5439,6 @@
     </row>
     <row r="150" spans="1:26" ht="19.5" customHeight="1">
       <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -5473,7 +5466,6 @@
     </row>
     <row r="151" spans="1:26" ht="19.5" customHeight="1">
       <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -5501,7 +5493,6 @@
     </row>
     <row r="152" spans="1:26" ht="19.5" customHeight="1">
       <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -5529,7 +5520,6 @@
     </row>
     <row r="153" spans="1:26" ht="19.5" customHeight="1">
       <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -5557,7 +5547,6 @@
     </row>
     <row r="154" spans="1:26" ht="19.5" customHeight="1">
       <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -5585,7 +5574,6 @@
     </row>
     <row r="155" spans="1:26" ht="19.5" customHeight="1">
       <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -5613,7 +5601,6 @@
     </row>
     <row r="156" spans="1:26" ht="19.5" customHeight="1">
       <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -5641,7 +5628,6 @@
     </row>
     <row r="157" spans="1:26" ht="19.5" customHeight="1">
       <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -5669,7 +5655,6 @@
     </row>
     <row r="158" spans="1:26" ht="19.5" customHeight="1">
       <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -5697,7 +5682,6 @@
     </row>
     <row r="159" spans="1:26" ht="19.5" customHeight="1">
       <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -5725,7 +5709,6 @@
     </row>
     <row r="160" spans="1:26" ht="19.5" customHeight="1">
       <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -5753,7 +5736,6 @@
     </row>
     <row r="161" spans="1:26" ht="19.5" customHeight="1">
       <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -5781,7 +5763,6 @@
     </row>
     <row r="162" spans="1:26" ht="19.5" customHeight="1">
       <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -5809,7 +5790,6 @@
     </row>
     <row r="163" spans="1:26" ht="19.5" customHeight="1">
       <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -5837,7 +5817,6 @@
     </row>
     <row r="164" spans="1:26" ht="19.5" customHeight="1">
       <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -5865,7 +5844,6 @@
     </row>
     <row r="165" spans="1:26" ht="19.5" customHeight="1">
       <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -5893,7 +5871,6 @@
     </row>
     <row r="166" spans="1:26" ht="19.5" customHeight="1">
       <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -5921,7 +5898,6 @@
     </row>
     <row r="167" spans="1:26" ht="19.5" customHeight="1">
       <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -5949,7 +5925,6 @@
     </row>
     <row r="168" spans="1:26" ht="19.5" customHeight="1">
       <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -5977,7 +5952,6 @@
     </row>
     <row r="169" spans="1:26" ht="19.5" customHeight="1">
       <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -6005,7 +5979,6 @@
     </row>
     <row r="170" spans="1:26" ht="19.5" customHeight="1">
       <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -6033,7 +6006,6 @@
     </row>
     <row r="171" spans="1:26" ht="19.5" customHeight="1">
       <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -6061,7 +6033,6 @@
     </row>
     <row r="172" spans="1:26" ht="19.5" customHeight="1">
       <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -6089,7 +6060,6 @@
     </row>
     <row r="173" spans="1:26" ht="19.5" customHeight="1">
       <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -6117,7 +6087,6 @@
     </row>
     <row r="174" spans="1:26" ht="19.5" customHeight="1">
       <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -6145,7 +6114,6 @@
     </row>
     <row r="175" spans="1:26" ht="19.5" customHeight="1">
       <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -6173,7 +6141,6 @@
     </row>
     <row r="176" spans="1:26" ht="19.5" customHeight="1">
       <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -6201,7 +6168,6 @@
     </row>
     <row r="177" spans="1:26" ht="19.5" customHeight="1">
       <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -6229,7 +6195,6 @@
     </row>
     <row r="178" spans="1:26" ht="19.5" customHeight="1">
       <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -6257,7 +6222,6 @@
     </row>
     <row r="179" spans="1:26" ht="19.5" customHeight="1">
       <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -6285,7 +6249,6 @@
     </row>
     <row r="180" spans="1:26" ht="19.5" customHeight="1">
       <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -6313,7 +6276,6 @@
     </row>
     <row r="181" spans="1:26" ht="19.5" customHeight="1">
       <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -6341,7 +6303,6 @@
     </row>
     <row r="182" spans="1:26" ht="19.5" customHeight="1">
       <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -6369,7 +6330,6 @@
     </row>
     <row r="183" spans="1:26" ht="19.5" customHeight="1">
       <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -6397,7 +6357,6 @@
     </row>
     <row r="184" spans="1:26" ht="19.5" customHeight="1">
       <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -6425,7 +6384,6 @@
     </row>
     <row r="185" spans="1:26" ht="19.5" customHeight="1">
       <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -6453,7 +6411,6 @@
     </row>
     <row r="186" spans="1:26" ht="19.5" customHeight="1">
       <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -6481,7 +6438,6 @@
     </row>
     <row r="187" spans="1:26" ht="19.5" customHeight="1">
       <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -6509,7 +6465,6 @@
     </row>
     <row r="188" spans="1:26" ht="19.5" customHeight="1">
       <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -6537,7 +6492,6 @@
     </row>
     <row r="189" spans="1:26" ht="19.5" customHeight="1">
       <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -6565,7 +6519,6 @@
     </row>
     <row r="190" spans="1:26" ht="19.5" customHeight="1">
       <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -6593,7 +6546,6 @@
     </row>
     <row r="191" spans="1:26" ht="19.5" customHeight="1">
       <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -6621,7 +6573,6 @@
     </row>
     <row r="192" spans="1:26" ht="19.5" customHeight="1">
       <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -6649,7 +6600,6 @@
     </row>
     <row r="193" spans="1:26" ht="19.5" customHeight="1">
       <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -6677,7 +6627,6 @@
     </row>
     <row r="194" spans="1:26" ht="19.5" customHeight="1">
       <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -6705,7 +6654,6 @@
     </row>
     <row r="195" spans="1:26" ht="19.5" customHeight="1">
       <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -6733,7 +6681,6 @@
     </row>
     <row r="196" spans="1:26" ht="19.5" customHeight="1">
       <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -6761,7 +6708,6 @@
     </row>
     <row r="197" spans="1:26" ht="19.5" customHeight="1">
       <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -6789,7 +6735,6 @@
     </row>
     <row r="198" spans="1:26" ht="19.5" customHeight="1">
       <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -6817,7 +6762,6 @@
     </row>
     <row r="199" spans="1:26" ht="19.5" customHeight="1">
       <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -6845,7 +6789,6 @@
     </row>
     <row r="200" spans="1:26" ht="19.5" customHeight="1">
       <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -6873,7 +6816,6 @@
     </row>
     <row r="201" spans="1:26" ht="19.5" customHeight="1">
       <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -6901,7 +6843,6 @@
     </row>
     <row r="202" spans="1:26" ht="19.5" customHeight="1">
       <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -6929,7 +6870,6 @@
     </row>
     <row r="203" spans="1:26" ht="19.5" customHeight="1">
       <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -6957,7 +6897,6 @@
     </row>
     <row r="204" spans="1:26" ht="19.5" customHeight="1">
       <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -6985,7 +6924,6 @@
     </row>
     <row r="205" spans="1:26" ht="19.5" customHeight="1">
       <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -7013,7 +6951,6 @@
     </row>
     <row r="206" spans="1:26" ht="19.5" customHeight="1">
       <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -7041,7 +6978,6 @@
     </row>
     <row r="207" spans="1:26" ht="19.5" customHeight="1">
       <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -7069,7 +7005,6 @@
     </row>
     <row r="208" spans="1:26" ht="19.5" customHeight="1">
       <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -7097,7 +7032,6 @@
     </row>
     <row r="209" spans="1:26" ht="19.5" customHeight="1">
       <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -7125,7 +7059,6 @@
     </row>
     <row r="210" spans="1:26" ht="19.5" customHeight="1">
       <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -7153,7 +7086,6 @@
     </row>
     <row r="211" spans="1:26" ht="19.5" customHeight="1">
       <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -7181,7 +7113,6 @@
     </row>
     <row r="212" spans="1:26" ht="19.5" customHeight="1">
       <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -7209,7 +7140,6 @@
     </row>
     <row r="213" spans="1:26" ht="19.5" customHeight="1">
       <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -7237,7 +7167,6 @@
     </row>
     <row r="214" spans="1:26" ht="19.5" customHeight="1">
       <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -7265,7 +7194,6 @@
     </row>
     <row r="215" spans="1:26" ht="19.5" customHeight="1">
       <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -7293,7 +7221,6 @@
     </row>
     <row r="216" spans="1:26" ht="19.5" customHeight="1">
       <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -7321,7 +7248,6 @@
     </row>
     <row r="217" spans="1:26" ht="19.5" customHeight="1">
       <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -7349,7 +7275,6 @@
     </row>
     <row r="218" spans="1:26" ht="19.5" customHeight="1">
       <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -7377,7 +7302,6 @@
     </row>
     <row r="219" spans="1:26" ht="19.5" customHeight="1">
       <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -7405,7 +7329,6 @@
     </row>
     <row r="220" spans="1:26" ht="19.5" customHeight="1">
       <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -7433,7 +7356,6 @@
     </row>
     <row r="221" spans="1:26" ht="19.5" customHeight="1">
       <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -7461,7 +7383,6 @@
     </row>
     <row r="222" spans="1:26" ht="19.5" customHeight="1">
       <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -7489,7 +7410,6 @@
     </row>
     <row r="223" spans="1:26" ht="19.5" customHeight="1">
       <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -7517,7 +7437,6 @@
     </row>
     <row r="224" spans="1:26" ht="19.5" customHeight="1">
       <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -7545,7 +7464,6 @@
     </row>
     <row r="225" spans="1:26" ht="19.5" customHeight="1">
       <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -7573,7 +7491,6 @@
     </row>
     <row r="226" spans="1:26" ht="19.5" customHeight="1">
       <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -7601,7 +7518,6 @@
     </row>
     <row r="227" spans="1:26" ht="19.5" customHeight="1">
       <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -7629,7 +7545,6 @@
     </row>
     <row r="228" spans="1:26" ht="19.5" customHeight="1">
       <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -7657,7 +7572,6 @@
     </row>
     <row r="229" spans="1:26" ht="19.5" customHeight="1">
       <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -7685,7 +7599,6 @@
     </row>
     <row r="230" spans="1:26" ht="19.5" customHeight="1">
       <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -7713,7 +7626,6 @@
     </row>
     <row r="231" spans="1:26" ht="19.5" customHeight="1">
       <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -7741,7 +7653,6 @@
     </row>
     <row r="232" spans="1:26" ht="19.5" customHeight="1">
       <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -7769,7 +7680,6 @@
     </row>
     <row r="233" spans="1:26" ht="19.5" customHeight="1">
       <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -7797,7 +7707,6 @@
     </row>
     <row r="234" spans="1:26" ht="19.5" customHeight="1">
       <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -7825,7 +7734,6 @@
     </row>
     <row r="235" spans="1:26" ht="19.5" customHeight="1">
       <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -7853,7 +7761,6 @@
     </row>
     <row r="236" spans="1:26" ht="19.5" customHeight="1">
       <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -7881,7 +7788,6 @@
     </row>
     <row r="237" spans="1:26" ht="19.5" customHeight="1">
       <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -7909,7 +7815,6 @@
     </row>
     <row r="238" spans="1:26" ht="19.5" customHeight="1">
       <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -7937,7 +7842,6 @@
     </row>
     <row r="239" spans="1:26" ht="19.5" customHeight="1">
       <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -7965,7 +7869,6 @@
     </row>
     <row r="240" spans="1:26" ht="19.5" customHeight="1">
       <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -7993,7 +7896,6 @@
     </row>
     <row r="241" spans="1:26" ht="19.5" customHeight="1">
       <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -8021,7 +7923,6 @@
     </row>
     <row r="242" spans="1:26" ht="19.5" customHeight="1">
       <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -8049,7 +7950,6 @@
     </row>
     <row r="243" spans="1:26" ht="19.5" customHeight="1">
       <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -8077,7 +7977,6 @@
     </row>
     <row r="244" spans="1:26" ht="19.5" customHeight="1">
       <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -8105,7 +8004,6 @@
     </row>
     <row r="245" spans="1:26" ht="19.5" customHeight="1">
       <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -8133,7 +8031,6 @@
     </row>
     <row r="246" spans="1:26" ht="19.5" customHeight="1">
       <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -8161,7 +8058,6 @@
     </row>
     <row r="247" spans="1:26" ht="19.5" customHeight="1">
       <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -8189,7 +8085,6 @@
     </row>
     <row r="248" spans="1:26" ht="19.5" customHeight="1">
       <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -8217,7 +8112,6 @@
     </row>
     <row r="249" spans="1:26" ht="19.5" customHeight="1">
       <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -8245,7 +8139,6 @@
     </row>
     <row r="250" spans="1:26" ht="19.5" customHeight="1">
       <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -8273,7 +8166,6 @@
     </row>
     <row r="251" spans="1:26" ht="19.5" customHeight="1">
       <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -8301,7 +8193,6 @@
     </row>
     <row r="252" spans="1:26" ht="19.5" customHeight="1">
       <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -8329,7 +8220,6 @@
     </row>
     <row r="253" spans="1:26" ht="19.5" customHeight="1">
       <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -8357,7 +8247,6 @@
     </row>
     <row r="254" spans="1:26" ht="19.5" customHeight="1">
       <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -8385,7 +8274,6 @@
     </row>
     <row r="255" spans="1:26" ht="19.5" customHeight="1">
       <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -8413,7 +8301,6 @@
     </row>
     <row r="256" spans="1:26" ht="19.5" customHeight="1">
       <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -8441,7 +8328,6 @@
     </row>
     <row r="257" spans="1:26" ht="19.5" customHeight="1">
       <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -8469,7 +8355,6 @@
     </row>
     <row r="258" spans="1:26" ht="19.5" customHeight="1">
       <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -8497,7 +8382,6 @@
     </row>
     <row r="259" spans="1:26" ht="19.5" customHeight="1">
       <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -8525,7 +8409,6 @@
     </row>
     <row r="260" spans="1:26" ht="19.5" customHeight="1">
       <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -8553,7 +8436,6 @@
     </row>
     <row r="261" spans="1:26" ht="19.5" customHeight="1">
       <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -8581,7 +8463,6 @@
     </row>
     <row r="262" spans="1:26" ht="19.5" customHeight="1">
       <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -8609,7 +8490,6 @@
     </row>
     <row r="263" spans="1:26" ht="19.5" customHeight="1">
       <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -8637,7 +8517,6 @@
     </row>
     <row r="264" spans="1:26" ht="19.5" customHeight="1">
       <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -8665,7 +8544,6 @@
     </row>
     <row r="265" spans="1:26" ht="19.5" customHeight="1">
       <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -8693,7 +8571,6 @@
     </row>
     <row r="266" spans="1:26" ht="19.5" customHeight="1">
       <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -8721,7 +8598,6 @@
     </row>
     <row r="267" spans="1:26" ht="19.5" customHeight="1">
       <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -8749,7 +8625,6 @@
     </row>
     <row r="268" spans="1:26" ht="19.5" customHeight="1">
       <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -8777,7 +8652,6 @@
     </row>
     <row r="269" spans="1:26" ht="19.5" customHeight="1">
       <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -8805,7 +8679,6 @@
     </row>
     <row r="270" spans="1:26" ht="19.5" customHeight="1">
       <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -8833,7 +8706,6 @@
     </row>
     <row r="271" spans="1:26" ht="19.5" customHeight="1">
       <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -8861,7 +8733,6 @@
     </row>
     <row r="272" spans="1:26" ht="19.5" customHeight="1">
       <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -8889,7 +8760,6 @@
     </row>
     <row r="273" spans="1:26" ht="19.5" customHeight="1">
       <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -8917,7 +8787,6 @@
     </row>
     <row r="274" spans="1:26" ht="19.5" customHeight="1">
       <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -8945,7 +8814,6 @@
     </row>
     <row r="275" spans="1:26" ht="19.5" customHeight="1">
       <c r="A275" s="1"/>
-      <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -8973,7 +8841,6 @@
     </row>
     <row r="276" spans="1:26" ht="19.5" customHeight="1">
       <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -9001,7 +8868,6 @@
     </row>
     <row r="277" spans="1:26" ht="19.5" customHeight="1">
       <c r="A277" s="1"/>
-      <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -9029,7 +8895,6 @@
     </row>
     <row r="278" spans="1:26" ht="19.5" customHeight="1">
       <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -9057,7 +8922,6 @@
     </row>
     <row r="279" spans="1:26" ht="19.5" customHeight="1">
       <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -9085,7 +8949,6 @@
     </row>
     <row r="280" spans="1:26" ht="19.5" customHeight="1">
       <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -9113,7 +8976,6 @@
     </row>
     <row r="281" spans="1:26" ht="19.5" customHeight="1">
       <c r="A281" s="1"/>
-      <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -9141,7 +9003,6 @@
     </row>
     <row r="282" spans="1:26" ht="19.5" customHeight="1">
       <c r="A282" s="1"/>
-      <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -9169,7 +9030,6 @@
     </row>
     <row r="283" spans="1:26" ht="19.5" customHeight="1">
       <c r="A283" s="1"/>
-      <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -9197,7 +9057,6 @@
     </row>
     <row r="284" spans="1:26" ht="19.5" customHeight="1">
       <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -9225,7 +9084,6 @@
     </row>
     <row r="285" spans="1:26" ht="19.5" customHeight="1">
       <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -9253,7 +9111,6 @@
     </row>
     <row r="286" spans="1:26" ht="19.5" customHeight="1">
       <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -9281,7 +9138,6 @@
     </row>
     <row r="287" spans="1:26" ht="19.5" customHeight="1">
       <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -9309,7 +9165,6 @@
     </row>
     <row r="288" spans="1:26" ht="19.5" customHeight="1">
       <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -9337,7 +9192,6 @@
     </row>
     <row r="289" spans="1:26" ht="19.5" customHeight="1">
       <c r="A289" s="1"/>
-      <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -9365,7 +9219,6 @@
     </row>
     <row r="290" spans="1:26" ht="19.5" customHeight="1">
       <c r="A290" s="1"/>
-      <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -9393,7 +9246,6 @@
     </row>
     <row r="291" spans="1:26" ht="19.5" customHeight="1">
       <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -9421,7 +9273,6 @@
     </row>
     <row r="292" spans="1:26" ht="19.5" customHeight="1">
       <c r="A292" s="1"/>
-      <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -9449,7 +9300,6 @@
     </row>
     <row r="293" spans="1:26" ht="19.5" customHeight="1">
       <c r="A293" s="1"/>
-      <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -9477,7 +9327,6 @@
     </row>
     <row r="294" spans="1:26" ht="19.5" customHeight="1">
       <c r="A294" s="1"/>
-      <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -9505,7 +9354,6 @@
     </row>
     <row r="295" spans="1:26" ht="19.5" customHeight="1">
       <c r="A295" s="1"/>
-      <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -9533,7 +9381,6 @@
     </row>
     <row r="296" spans="1:26" ht="19.5" customHeight="1">
       <c r="A296" s="1"/>
-      <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -9561,7 +9408,6 @@
     </row>
     <row r="297" spans="1:26" ht="19.5" customHeight="1">
       <c r="A297" s="1"/>
-      <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -9589,7 +9435,6 @@
     </row>
     <row r="298" spans="1:26" ht="19.5" customHeight="1">
       <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -9617,7 +9462,6 @@
     </row>
     <row r="299" spans="1:26" ht="19.5" customHeight="1">
       <c r="A299" s="1"/>
-      <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -9645,7 +9489,6 @@
     </row>
     <row r="300" spans="1:26" ht="19.5" customHeight="1">
       <c r="A300" s="1"/>
-      <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -9673,7 +9516,6 @@
     </row>
     <row r="301" spans="1:26" ht="19.5" customHeight="1">
       <c r="A301" s="1"/>
-      <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
@@ -9701,7 +9543,6 @@
     </row>
     <row r="302" spans="1:26" ht="19.5" customHeight="1">
       <c r="A302" s="1"/>
-      <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
@@ -9729,7 +9570,6 @@
     </row>
     <row r="303" spans="1:26" ht="19.5" customHeight="1">
       <c r="A303" s="1"/>
-      <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
@@ -9757,7 +9597,6 @@
     </row>
     <row r="304" spans="1:26" ht="19.5" customHeight="1">
       <c r="A304" s="1"/>
-      <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
@@ -9785,7 +9624,6 @@
     </row>
     <row r="305" spans="1:26" ht="19.5" customHeight="1">
       <c r="A305" s="1"/>
-      <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
@@ -9813,7 +9651,6 @@
     </row>
     <row r="306" spans="1:26" ht="19.5" customHeight="1">
       <c r="A306" s="1"/>
-      <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
@@ -9841,7 +9678,6 @@
     </row>
     <row r="307" spans="1:26" ht="19.5" customHeight="1">
       <c r="A307" s="1"/>
-      <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
@@ -9869,7 +9705,6 @@
     </row>
     <row r="308" spans="1:26" ht="19.5" customHeight="1">
       <c r="A308" s="1"/>
-      <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
@@ -9897,7 +9732,6 @@
     </row>
     <row r="309" spans="1:26" ht="19.5" customHeight="1">
       <c r="A309" s="1"/>
-      <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
@@ -9925,7 +9759,6 @@
     </row>
     <row r="310" spans="1:26" ht="19.5" customHeight="1">
       <c r="A310" s="1"/>
-      <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
@@ -9953,7 +9786,6 @@
     </row>
     <row r="311" spans="1:26" ht="19.5" customHeight="1">
       <c r="A311" s="1"/>
-      <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
@@ -9981,7 +9813,6 @@
     </row>
     <row r="312" spans="1:26" ht="19.5" customHeight="1">
       <c r="A312" s="1"/>
-      <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
@@ -10009,7 +9840,6 @@
     </row>
     <row r="313" spans="1:26" ht="19.5" customHeight="1">
       <c r="A313" s="1"/>
-      <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
@@ -10037,7 +9867,6 @@
     </row>
     <row r="314" spans="1:26" ht="19.5" customHeight="1">
       <c r="A314" s="1"/>
-      <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
@@ -10065,7 +9894,6 @@
     </row>
     <row r="315" spans="1:26" ht="19.5" customHeight="1">
       <c r="A315" s="1"/>
-      <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
@@ -10093,7 +9921,6 @@
     </row>
     <row r="316" spans="1:26" ht="19.5" customHeight="1">
       <c r="A316" s="1"/>
-      <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
@@ -10121,7 +9948,6 @@
     </row>
     <row r="317" spans="1:26" ht="19.5" customHeight="1">
       <c r="A317" s="1"/>
-      <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
@@ -10149,7 +9975,6 @@
     </row>
     <row r="318" spans="1:26" ht="19.5" customHeight="1">
       <c r="A318" s="1"/>
-      <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
@@ -10177,7 +10002,6 @@
     </row>
     <row r="319" spans="1:26" ht="19.5" customHeight="1">
       <c r="A319" s="1"/>
-      <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
@@ -10205,7 +10029,6 @@
     </row>
     <row r="320" spans="1:26" ht="19.5" customHeight="1">
       <c r="A320" s="1"/>
-      <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -10233,7 +10056,6 @@
     </row>
     <row r="321" spans="1:26" ht="19.5" customHeight="1">
       <c r="A321" s="1"/>
-      <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
@@ -10261,7 +10083,6 @@
     </row>
     <row r="322" spans="1:26" ht="19.5" customHeight="1">
       <c r="A322" s="1"/>
-      <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
@@ -10289,7 +10110,6 @@
     </row>
     <row r="323" spans="1:26" ht="19.5" customHeight="1">
       <c r="A323" s="1"/>
-      <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -10317,7 +10137,6 @@
     </row>
     <row r="324" spans="1:26" ht="19.5" customHeight="1">
       <c r="A324" s="1"/>
-      <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
@@ -10345,7 +10164,6 @@
     </row>
     <row r="325" spans="1:26" ht="19.5" customHeight="1">
       <c r="A325" s="1"/>
-      <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
@@ -10373,7 +10191,6 @@
     </row>
     <row r="326" spans="1:26" ht="19.5" customHeight="1">
       <c r="A326" s="1"/>
-      <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
@@ -10401,7 +10218,6 @@
     </row>
     <row r="327" spans="1:26" ht="19.5" customHeight="1">
       <c r="A327" s="1"/>
-      <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
@@ -10429,7 +10245,6 @@
     </row>
     <row r="328" spans="1:26" ht="19.5" customHeight="1">
       <c r="A328" s="1"/>
-      <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
@@ -10457,7 +10272,6 @@
     </row>
     <row r="329" spans="1:26" ht="19.5" customHeight="1">
       <c r="A329" s="1"/>
-      <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
@@ -10485,7 +10299,6 @@
     </row>
     <row r="330" spans="1:26" ht="19.5" customHeight="1">
       <c r="A330" s="1"/>
-      <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
@@ -10513,7 +10326,6 @@
     </row>
     <row r="331" spans="1:26" ht="19.5" customHeight="1">
       <c r="A331" s="1"/>
-      <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -10541,7 +10353,6 @@
     </row>
     <row r="332" spans="1:26" ht="19.5" customHeight="1">
       <c r="A332" s="1"/>
-      <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
@@ -10569,7 +10380,6 @@
     </row>
     <row r="333" spans="1:26" ht="19.5" customHeight="1">
       <c r="A333" s="1"/>
-      <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
@@ -10597,7 +10407,6 @@
     </row>
     <row r="334" spans="1:26" ht="19.5" customHeight="1">
       <c r="A334" s="1"/>
-      <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
@@ -10625,7 +10434,6 @@
     </row>
     <row r="335" spans="1:26" ht="19.5" customHeight="1">
       <c r="A335" s="1"/>
-      <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
@@ -10653,7 +10461,6 @@
     </row>
     <row r="336" spans="1:26" ht="19.5" customHeight="1">
       <c r="A336" s="1"/>
-      <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
@@ -10681,7 +10488,6 @@
     </row>
     <row r="337" spans="1:26" ht="19.5" customHeight="1">
       <c r="A337" s="1"/>
-      <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
@@ -10709,7 +10515,6 @@
     </row>
     <row r="338" spans="1:26" ht="19.5" customHeight="1">
       <c r="A338" s="1"/>
-      <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -10737,7 +10542,6 @@
     </row>
     <row r="339" spans="1:26" ht="19.5" customHeight="1">
       <c r="A339" s="1"/>
-      <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
@@ -10765,7 +10569,6 @@
     </row>
     <row r="340" spans="1:26" ht="19.5" customHeight="1">
       <c r="A340" s="1"/>
-      <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
@@ -10793,7 +10596,6 @@
     </row>
     <row r="341" spans="1:26" ht="19.5" customHeight="1">
       <c r="A341" s="1"/>
-      <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
@@ -10821,7 +10623,6 @@
     </row>
     <row r="342" spans="1:26" ht="19.5" customHeight="1">
       <c r="A342" s="1"/>
-      <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
@@ -10849,7 +10650,6 @@
     </row>
     <row r="343" spans="1:26" ht="19.5" customHeight="1">
       <c r="A343" s="1"/>
-      <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
@@ -10877,7 +10677,6 @@
     </row>
     <row r="344" spans="1:26" ht="19.5" customHeight="1">
       <c r="A344" s="1"/>
-      <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
@@ -10905,7 +10704,6 @@
     </row>
     <row r="345" spans="1:26" ht="19.5" customHeight="1">
       <c r="A345" s="1"/>
-      <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
@@ -10933,7 +10731,6 @@
     </row>
     <row r="346" spans="1:26" ht="19.5" customHeight="1">
       <c r="A346" s="1"/>
-      <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
@@ -10961,7 +10758,6 @@
     </row>
     <row r="347" spans="1:26" ht="19.5" customHeight="1">
       <c r="A347" s="1"/>
-      <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
@@ -10989,7 +10785,6 @@
     </row>
     <row r="348" spans="1:26" ht="19.5" customHeight="1">
       <c r="A348" s="1"/>
-      <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
@@ -11017,7 +10812,6 @@
     </row>
     <row r="349" spans="1:26" ht="19.5" customHeight="1">
       <c r="A349" s="1"/>
-      <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
@@ -11045,7 +10839,6 @@
     </row>
     <row r="350" spans="1:26" ht="19.5" customHeight="1">
       <c r="A350" s="1"/>
-      <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
@@ -11073,7 +10866,6 @@
     </row>
     <row r="351" spans="1:26" ht="19.5" customHeight="1">
       <c r="A351" s="1"/>
-      <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
@@ -11101,7 +10893,6 @@
     </row>
     <row r="352" spans="1:26" ht="19.5" customHeight="1">
       <c r="A352" s="1"/>
-      <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
@@ -11129,7 +10920,6 @@
     </row>
     <row r="353" spans="1:26" ht="19.5" customHeight="1">
       <c r="A353" s="1"/>
-      <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
@@ -11157,7 +10947,6 @@
     </row>
     <row r="354" spans="1:26" ht="19.5" customHeight="1">
       <c r="A354" s="1"/>
-      <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
@@ -11185,7 +10974,6 @@
     </row>
     <row r="355" spans="1:26" ht="19.5" customHeight="1">
       <c r="A355" s="1"/>
-      <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
@@ -11213,7 +11001,6 @@
     </row>
     <row r="356" spans="1:26" ht="19.5" customHeight="1">
       <c r="A356" s="1"/>
-      <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
@@ -11241,7 +11028,6 @@
     </row>
     <row r="357" spans="1:26" ht="19.5" customHeight="1">
       <c r="A357" s="1"/>
-      <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
@@ -11269,7 +11055,6 @@
     </row>
     <row r="358" spans="1:26" ht="19.5" customHeight="1">
       <c r="A358" s="1"/>
-      <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
@@ -11297,7 +11082,6 @@
     </row>
     <row r="359" spans="1:26" ht="19.5" customHeight="1">
       <c r="A359" s="1"/>
-      <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
@@ -11325,7 +11109,6 @@
     </row>
     <row r="360" spans="1:26" ht="19.5" customHeight="1">
       <c r="A360" s="1"/>
-      <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
@@ -11353,7 +11136,6 @@
     </row>
     <row r="361" spans="1:26" ht="19.5" customHeight="1">
       <c r="A361" s="1"/>
-      <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
@@ -11381,7 +11163,6 @@
     </row>
     <row r="362" spans="1:26" ht="19.5" customHeight="1">
       <c r="A362" s="1"/>
-      <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
@@ -11409,7 +11190,6 @@
     </row>
     <row r="363" spans="1:26" ht="19.5" customHeight="1">
       <c r="A363" s="1"/>
-      <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
@@ -11437,7 +11217,6 @@
     </row>
     <row r="364" spans="1:26" ht="19.5" customHeight="1">
       <c r="A364" s="1"/>
-      <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
@@ -11465,7 +11244,6 @@
     </row>
     <row r="365" spans="1:26" ht="19.5" customHeight="1">
       <c r="A365" s="1"/>
-      <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
@@ -11493,7 +11271,6 @@
     </row>
     <row r="366" spans="1:26" ht="19.5" customHeight="1">
       <c r="A366" s="1"/>
-      <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
@@ -11521,7 +11298,6 @@
     </row>
     <row r="367" spans="1:26" ht="19.5" customHeight="1">
       <c r="A367" s="1"/>
-      <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
@@ -11549,7 +11325,6 @@
     </row>
     <row r="368" spans="1:26" ht="19.5" customHeight="1">
       <c r="A368" s="1"/>
-      <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
@@ -11577,7 +11352,6 @@
     </row>
     <row r="369" spans="1:26" ht="19.5" customHeight="1">
       <c r="A369" s="1"/>
-      <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
@@ -11605,7 +11379,6 @@
     </row>
     <row r="370" spans="1:26" ht="19.5" customHeight="1">
       <c r="A370" s="1"/>
-      <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
@@ -11633,7 +11406,6 @@
     </row>
     <row r="371" spans="1:26" ht="19.5" customHeight="1">
       <c r="A371" s="1"/>
-      <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
@@ -11661,7 +11433,6 @@
     </row>
     <row r="372" spans="1:26" ht="19.5" customHeight="1">
       <c r="A372" s="1"/>
-      <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
@@ -11689,7 +11460,6 @@
     </row>
     <row r="373" spans="1:26" ht="19.5" customHeight="1">
       <c r="A373" s="1"/>
-      <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
@@ -11717,7 +11487,6 @@
     </row>
     <row r="374" spans="1:26" ht="19.5" customHeight="1">
       <c r="A374" s="1"/>
-      <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
@@ -11745,7 +11514,6 @@
     </row>
     <row r="375" spans="1:26" ht="19.5" customHeight="1">
       <c r="A375" s="1"/>
-      <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
@@ -11773,7 +11541,6 @@
     </row>
     <row r="376" spans="1:26" ht="19.5" customHeight="1">
       <c r="A376" s="1"/>
-      <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
@@ -11801,7 +11568,6 @@
     </row>
     <row r="377" spans="1:26" ht="19.5" customHeight="1">
       <c r="A377" s="1"/>
-      <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
@@ -11829,7 +11595,6 @@
     </row>
     <row r="378" spans="1:26" ht="19.5" customHeight="1">
       <c r="A378" s="1"/>
-      <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
@@ -11857,7 +11622,6 @@
     </row>
     <row r="379" spans="1:26" ht="19.5" customHeight="1">
       <c r="A379" s="1"/>
-      <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
@@ -11885,7 +11649,6 @@
     </row>
     <row r="380" spans="1:26" ht="19.5" customHeight="1">
       <c r="A380" s="1"/>
-      <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -11913,7 +11676,6 @@
     </row>
     <row r="381" spans="1:26" ht="19.5" customHeight="1">
       <c r="A381" s="1"/>
-      <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
@@ -11941,7 +11703,6 @@
     </row>
     <row r="382" spans="1:26" ht="19.5" customHeight="1">
       <c r="A382" s="1"/>
-      <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
@@ -11969,7 +11730,6 @@
     </row>
     <row r="383" spans="1:26" ht="19.5" customHeight="1">
       <c r="A383" s="1"/>
-      <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
@@ -11997,7 +11757,6 @@
     </row>
     <row r="384" spans="1:26" ht="19.5" customHeight="1">
       <c r="A384" s="1"/>
-      <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
@@ -12025,7 +11784,6 @@
     </row>
     <row r="385" spans="1:26" ht="19.5" customHeight="1">
       <c r="A385" s="1"/>
-      <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
@@ -12053,7 +11811,6 @@
     </row>
     <row r="386" spans="1:26" ht="19.5" customHeight="1">
       <c r="A386" s="1"/>
-      <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
@@ -12081,7 +11838,6 @@
     </row>
     <row r="387" spans="1:26" ht="19.5" customHeight="1">
       <c r="A387" s="1"/>
-      <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
@@ -12109,7 +11865,6 @@
     </row>
     <row r="388" spans="1:26" ht="19.5" customHeight="1">
       <c r="A388" s="1"/>
-      <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
@@ -12137,7 +11892,6 @@
     </row>
     <row r="389" spans="1:26" ht="19.5" customHeight="1">
       <c r="A389" s="1"/>
-      <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -12165,7 +11919,6 @@
     </row>
     <row r="390" spans="1:26" ht="19.5" customHeight="1">
       <c r="A390" s="1"/>
-      <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
@@ -12193,7 +11946,6 @@
     </row>
     <row r="391" spans="1:26" ht="19.5" customHeight="1">
       <c r="A391" s="1"/>
-      <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
@@ -12221,7 +11973,6 @@
     </row>
     <row r="392" spans="1:26" ht="19.5" customHeight="1">
       <c r="A392" s="1"/>
-      <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
@@ -12249,7 +12000,6 @@
     </row>
     <row r="393" spans="1:26" ht="19.5" customHeight="1">
       <c r="A393" s="1"/>
-      <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
@@ -12277,7 +12027,6 @@
     </row>
     <row r="394" spans="1:26" ht="19.5" customHeight="1">
       <c r="A394" s="1"/>
-      <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
@@ -12305,7 +12054,6 @@
     </row>
     <row r="395" spans="1:26" ht="19.5" customHeight="1">
       <c r="A395" s="1"/>
-      <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
@@ -12333,7 +12081,6 @@
     </row>
     <row r="396" spans="1:26" ht="19.5" customHeight="1">
       <c r="A396" s="1"/>
-      <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
@@ -12361,7 +12108,6 @@
     </row>
     <row r="397" spans="1:26" ht="19.5" customHeight="1">
       <c r="A397" s="1"/>
-      <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
@@ -12389,7 +12135,6 @@
     </row>
     <row r="398" spans="1:26" ht="19.5" customHeight="1">
       <c r="A398" s="1"/>
-      <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
@@ -12417,7 +12162,6 @@
     </row>
     <row r="399" spans="1:26" ht="19.5" customHeight="1">
       <c r="A399" s="1"/>
-      <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
@@ -12445,7 +12189,6 @@
     </row>
     <row r="400" spans="1:26" ht="19.5" customHeight="1">
       <c r="A400" s="1"/>
-      <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
@@ -12473,7 +12216,6 @@
     </row>
     <row r="401" spans="1:26" ht="19.5" customHeight="1">
       <c r="A401" s="1"/>
-      <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
@@ -12501,7 +12243,6 @@
     </row>
     <row r="402" spans="1:26" ht="19.5" customHeight="1">
       <c r="A402" s="1"/>
-      <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
@@ -12529,7 +12270,6 @@
     </row>
     <row r="403" spans="1:26" ht="19.5" customHeight="1">
       <c r="A403" s="1"/>
-      <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
@@ -12557,7 +12297,6 @@
     </row>
     <row r="404" spans="1:26" ht="19.5" customHeight="1">
       <c r="A404" s="1"/>
-      <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
@@ -12585,7 +12324,6 @@
     </row>
     <row r="405" spans="1:26" ht="19.5" customHeight="1">
       <c r="A405" s="1"/>
-      <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
@@ -12613,7 +12351,6 @@
     </row>
     <row r="406" spans="1:26" ht="19.5" customHeight="1">
       <c r="A406" s="1"/>
-      <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
@@ -12641,7 +12378,6 @@
     </row>
     <row r="407" spans="1:26" ht="19.5" customHeight="1">
       <c r="A407" s="1"/>
-      <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
@@ -12669,7 +12405,6 @@
     </row>
     <row r="408" spans="1:26" ht="19.5" customHeight="1">
       <c r="A408" s="1"/>
-      <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
@@ -12697,7 +12432,6 @@
     </row>
     <row r="409" spans="1:26" ht="19.5" customHeight="1">
       <c r="A409" s="1"/>
-      <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
@@ -12725,7 +12459,6 @@
     </row>
     <row r="410" spans="1:26" ht="19.5" customHeight="1">
       <c r="A410" s="1"/>
-      <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
@@ -12753,7 +12486,6 @@
     </row>
     <row r="411" spans="1:26" ht="19.5" customHeight="1">
       <c r="A411" s="1"/>
-      <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
@@ -12781,7 +12513,6 @@
     </row>
     <row r="412" spans="1:26" ht="19.5" customHeight="1">
       <c r="A412" s="1"/>
-      <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
@@ -12809,7 +12540,6 @@
     </row>
     <row r="413" spans="1:26" ht="19.5" customHeight="1">
       <c r="A413" s="1"/>
-      <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
@@ -12837,7 +12567,6 @@
     </row>
     <row r="414" spans="1:26" ht="19.5" customHeight="1">
       <c r="A414" s="1"/>
-      <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
@@ -12865,7 +12594,6 @@
     </row>
     <row r="415" spans="1:26" ht="19.5" customHeight="1">
       <c r="A415" s="1"/>
-      <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
@@ -12893,7 +12621,6 @@
     </row>
     <row r="416" spans="1:26" ht="19.5" customHeight="1">
       <c r="A416" s="1"/>
-      <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
@@ -12921,7 +12648,6 @@
     </row>
     <row r="417" spans="1:26" ht="19.5" customHeight="1">
       <c r="A417" s="1"/>
-      <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
@@ -12949,7 +12675,6 @@
     </row>
     <row r="418" spans="1:26" ht="19.5" customHeight="1">
       <c r="A418" s="1"/>
-      <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
@@ -12977,7 +12702,6 @@
     </row>
     <row r="419" spans="1:26" ht="19.5" customHeight="1">
       <c r="A419" s="1"/>
-      <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
@@ -13005,7 +12729,6 @@
     </row>
     <row r="420" spans="1:26" ht="19.5" customHeight="1">
       <c r="A420" s="1"/>
-      <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
@@ -13033,7 +12756,6 @@
     </row>
     <row r="421" spans="1:26" ht="19.5" customHeight="1">
       <c r="A421" s="1"/>
-      <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
@@ -13061,7 +12783,6 @@
     </row>
     <row r="422" spans="1:26" ht="19.5" customHeight="1">
       <c r="A422" s="1"/>
-      <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
@@ -13089,7 +12810,6 @@
     </row>
     <row r="423" spans="1:26" ht="19.5" customHeight="1">
       <c r="A423" s="1"/>
-      <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
@@ -13117,7 +12837,6 @@
     </row>
     <row r="424" spans="1:26" ht="19.5" customHeight="1">
       <c r="A424" s="1"/>
-      <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
@@ -13145,7 +12864,6 @@
     </row>
     <row r="425" spans="1:26" ht="19.5" customHeight="1">
       <c r="A425" s="1"/>
-      <c r="B425" s="1"/>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
@@ -13173,7 +12891,6 @@
     </row>
     <row r="426" spans="1:26" ht="19.5" customHeight="1">
       <c r="A426" s="1"/>
-      <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
@@ -13201,7 +12918,6 @@
     </row>
     <row r="427" spans="1:26" ht="19.5" customHeight="1">
       <c r="A427" s="1"/>
-      <c r="B427" s="1"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
@@ -13229,7 +12945,6 @@
     </row>
     <row r="428" spans="1:26" ht="19.5" customHeight="1">
       <c r="A428" s="1"/>
-      <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
@@ -13257,7 +12972,6 @@
     </row>
     <row r="429" spans="1:26" ht="19.5" customHeight="1">
       <c r="A429" s="1"/>
-      <c r="B429" s="1"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
@@ -13285,7 +12999,6 @@
     </row>
     <row r="430" spans="1:26" ht="19.5" customHeight="1">
       <c r="A430" s="1"/>
-      <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
@@ -13313,7 +13026,6 @@
     </row>
     <row r="431" spans="1:26" ht="19.5" customHeight="1">
       <c r="A431" s="1"/>
-      <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
@@ -13341,7 +13053,6 @@
     </row>
     <row r="432" spans="1:26" ht="19.5" customHeight="1">
       <c r="A432" s="1"/>
-      <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
@@ -13369,7 +13080,6 @@
     </row>
     <row r="433" spans="1:26" ht="19.5" customHeight="1">
       <c r="A433" s="1"/>
-      <c r="B433" s="1"/>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
@@ -13397,7 +13107,6 @@
     </row>
     <row r="434" spans="1:26" ht="19.5" customHeight="1">
       <c r="A434" s="1"/>
-      <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
@@ -13425,7 +13134,6 @@
     </row>
     <row r="435" spans="1:26" ht="19.5" customHeight="1">
       <c r="A435" s="1"/>
-      <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
@@ -13453,7 +13161,6 @@
     </row>
     <row r="436" spans="1:26" ht="19.5" customHeight="1">
       <c r="A436" s="1"/>
-      <c r="B436" s="1"/>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
@@ -13481,7 +13188,6 @@
     </row>
     <row r="437" spans="1:26" ht="19.5" customHeight="1">
       <c r="A437" s="1"/>
-      <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
@@ -13509,7 +13215,6 @@
     </row>
     <row r="438" spans="1:26" ht="19.5" customHeight="1">
       <c r="A438" s="1"/>
-      <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
@@ -13537,7 +13242,6 @@
     </row>
     <row r="439" spans="1:26" ht="19.5" customHeight="1">
       <c r="A439" s="1"/>
-      <c r="B439" s="1"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
@@ -13565,7 +13269,6 @@
     </row>
     <row r="440" spans="1:26" ht="19.5" customHeight="1">
       <c r="A440" s="1"/>
-      <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
@@ -13593,7 +13296,6 @@
     </row>
     <row r="441" spans="1:26" ht="19.5" customHeight="1">
       <c r="A441" s="1"/>
-      <c r="B441" s="1"/>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
@@ -13621,7 +13323,6 @@
     </row>
     <row r="442" spans="1:26" ht="19.5" customHeight="1">
       <c r="A442" s="1"/>
-      <c r="B442" s="1"/>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
@@ -13649,7 +13350,6 @@
     </row>
     <row r="443" spans="1:26" ht="19.5" customHeight="1">
       <c r="A443" s="1"/>
-      <c r="B443" s="1"/>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
@@ -13677,7 +13377,6 @@
     </row>
     <row r="444" spans="1:26" ht="19.5" customHeight="1">
       <c r="A444" s="1"/>
-      <c r="B444" s="1"/>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
@@ -13705,7 +13404,6 @@
     </row>
     <row r="445" spans="1:26" ht="19.5" customHeight="1">
       <c r="A445" s="1"/>
-      <c r="B445" s="1"/>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
@@ -13733,7 +13431,6 @@
     </row>
     <row r="446" spans="1:26" ht="19.5" customHeight="1">
       <c r="A446" s="1"/>
-      <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
@@ -13761,7 +13458,6 @@
     </row>
     <row r="447" spans="1:26" ht="19.5" customHeight="1">
       <c r="A447" s="1"/>
-      <c r="B447" s="1"/>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
@@ -13789,7 +13485,6 @@
     </row>
     <row r="448" spans="1:26" ht="19.5" customHeight="1">
       <c r="A448" s="1"/>
-      <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
@@ -13817,7 +13512,6 @@
     </row>
     <row r="449" spans="1:26" ht="19.5" customHeight="1">
       <c r="A449" s="1"/>
-      <c r="B449" s="1"/>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
@@ -13845,7 +13539,6 @@
     </row>
     <row r="450" spans="1:26" ht="19.5" customHeight="1">
       <c r="A450" s="1"/>
-      <c r="B450" s="1"/>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
@@ -13873,7 +13566,6 @@
     </row>
     <row r="451" spans="1:26" ht="19.5" customHeight="1">
       <c r="A451" s="1"/>
-      <c r="B451" s="1"/>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
@@ -13901,7 +13593,6 @@
     </row>
     <row r="452" spans="1:26" ht="19.5" customHeight="1">
       <c r="A452" s="1"/>
-      <c r="B452" s="1"/>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
@@ -13929,7 +13620,6 @@
     </row>
     <row r="453" spans="1:26" ht="19.5" customHeight="1">
       <c r="A453" s="1"/>
-      <c r="B453" s="1"/>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
@@ -13957,7 +13647,6 @@
     </row>
     <row r="454" spans="1:26" ht="19.5" customHeight="1">
       <c r="A454" s="1"/>
-      <c r="B454" s="1"/>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
@@ -13985,7 +13674,6 @@
     </row>
     <row r="455" spans="1:26" ht="19.5" customHeight="1">
       <c r="A455" s="1"/>
-      <c r="B455" s="1"/>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
@@ -14013,7 +13701,6 @@
     </row>
     <row r="456" spans="1:26" ht="19.5" customHeight="1">
       <c r="A456" s="1"/>
-      <c r="B456" s="1"/>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
@@ -14041,7 +13728,6 @@
     </row>
     <row r="457" spans="1:26" ht="19.5" customHeight="1">
       <c r="A457" s="1"/>
-      <c r="B457" s="1"/>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
@@ -14069,7 +13755,6 @@
     </row>
     <row r="458" spans="1:26" ht="19.5" customHeight="1">
       <c r="A458" s="1"/>
-      <c r="B458" s="1"/>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
@@ -14097,7 +13782,6 @@
     </row>
     <row r="459" spans="1:26" ht="19.5" customHeight="1">
       <c r="A459" s="1"/>
-      <c r="B459" s="1"/>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
@@ -14125,7 +13809,6 @@
     </row>
     <row r="460" spans="1:26" ht="19.5" customHeight="1">
       <c r="A460" s="1"/>
-      <c r="B460" s="1"/>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
@@ -14153,7 +13836,6 @@
     </row>
     <row r="461" spans="1:26" ht="19.5" customHeight="1">
       <c r="A461" s="1"/>
-      <c r="B461" s="1"/>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
@@ -14181,7 +13863,6 @@
     </row>
     <row r="462" spans="1:26" ht="19.5" customHeight="1">
       <c r="A462" s="1"/>
-      <c r="B462" s="1"/>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
@@ -14209,7 +13890,6 @@
     </row>
     <row r="463" spans="1:26" ht="19.5" customHeight="1">
       <c r="A463" s="1"/>
-      <c r="B463" s="1"/>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
@@ -14237,7 +13917,6 @@
     </row>
     <row r="464" spans="1:26" ht="19.5" customHeight="1">
       <c r="A464" s="1"/>
-      <c r="B464" s="1"/>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
@@ -14265,7 +13944,6 @@
     </row>
     <row r="465" spans="1:26" ht="19.5" customHeight="1">
       <c r="A465" s="1"/>
-      <c r="B465" s="1"/>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
@@ -14293,7 +13971,6 @@
     </row>
     <row r="466" spans="1:26" ht="19.5" customHeight="1">
       <c r="A466" s="1"/>
-      <c r="B466" s="1"/>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
@@ -14321,7 +13998,6 @@
     </row>
     <row r="467" spans="1:26" ht="19.5" customHeight="1">
       <c r="A467" s="1"/>
-      <c r="B467" s="1"/>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
@@ -14349,7 +14025,6 @@
     </row>
     <row r="468" spans="1:26" ht="19.5" customHeight="1">
       <c r="A468" s="1"/>
-      <c r="B468" s="1"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
@@ -14377,7 +14052,6 @@
     </row>
     <row r="469" spans="1:26" ht="19.5" customHeight="1">
       <c r="A469" s="1"/>
-      <c r="B469" s="1"/>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
@@ -14405,7 +14079,6 @@
     </row>
     <row r="470" spans="1:26" ht="19.5" customHeight="1">
       <c r="A470" s="1"/>
-      <c r="B470" s="1"/>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
@@ -14433,7 +14106,6 @@
     </row>
     <row r="471" spans="1:26" ht="19.5" customHeight="1">
       <c r="A471" s="1"/>
-      <c r="B471" s="1"/>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
@@ -14461,7 +14133,6 @@
     </row>
     <row r="472" spans="1:26" ht="19.5" customHeight="1">
       <c r="A472" s="1"/>
-      <c r="B472" s="1"/>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
@@ -14489,7 +14160,6 @@
     </row>
     <row r="473" spans="1:26" ht="19.5" customHeight="1">
       <c r="A473" s="1"/>
-      <c r="B473" s="1"/>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
@@ -14517,7 +14187,6 @@
     </row>
     <row r="474" spans="1:26" ht="19.5" customHeight="1">
       <c r="A474" s="1"/>
-      <c r="B474" s="1"/>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
@@ -14545,7 +14214,6 @@
     </row>
     <row r="475" spans="1:26" ht="19.5" customHeight="1">
       <c r="A475" s="1"/>
-      <c r="B475" s="1"/>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
@@ -14573,7 +14241,6 @@
     </row>
     <row r="476" spans="1:26" ht="19.5" customHeight="1">
       <c r="A476" s="1"/>
-      <c r="B476" s="1"/>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
@@ -14601,7 +14268,6 @@
     </row>
     <row r="477" spans="1:26" ht="19.5" customHeight="1">
       <c r="A477" s="1"/>
-      <c r="B477" s="1"/>
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
@@ -14629,7 +14295,6 @@
     </row>
     <row r="478" spans="1:26" ht="19.5" customHeight="1">
       <c r="A478" s="1"/>
-      <c r="B478" s="1"/>
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
@@ -14657,7 +14322,6 @@
     </row>
     <row r="479" spans="1:26" ht="19.5" customHeight="1">
       <c r="A479" s="1"/>
-      <c r="B479" s="1"/>
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
@@ -14685,7 +14349,6 @@
     </row>
     <row r="480" spans="1:26" ht="19.5" customHeight="1">
       <c r="A480" s="1"/>
-      <c r="B480" s="1"/>
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
@@ -14713,7 +14376,6 @@
     </row>
     <row r="481" spans="1:26" ht="19.5" customHeight="1">
       <c r="A481" s="1"/>
-      <c r="B481" s="1"/>
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
@@ -14741,7 +14403,6 @@
     </row>
     <row r="482" spans="1:26" ht="19.5" customHeight="1">
       <c r="A482" s="1"/>
-      <c r="B482" s="1"/>
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
@@ -14769,7 +14430,6 @@
     </row>
     <row r="483" spans="1:26" ht="19.5" customHeight="1">
       <c r="A483" s="1"/>
-      <c r="B483" s="1"/>
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
@@ -14797,7 +14457,6 @@
     </row>
     <row r="484" spans="1:26" ht="19.5" customHeight="1">
       <c r="A484" s="1"/>
-      <c r="B484" s="1"/>
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
@@ -14825,7 +14484,6 @@
     </row>
     <row r="485" spans="1:26" ht="19.5" customHeight="1">
       <c r="A485" s="1"/>
-      <c r="B485" s="1"/>
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
@@ -14853,7 +14511,6 @@
     </row>
     <row r="486" spans="1:26" ht="19.5" customHeight="1">
       <c r="A486" s="1"/>
-      <c r="B486" s="1"/>
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
@@ -14881,7 +14538,6 @@
     </row>
     <row r="487" spans="1:26" ht="19.5" customHeight="1">
       <c r="A487" s="1"/>
-      <c r="B487" s="1"/>
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
@@ -14909,7 +14565,6 @@
     </row>
     <row r="488" spans="1:26" ht="19.5" customHeight="1">
       <c r="A488" s="1"/>
-      <c r="B488" s="1"/>
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
@@ -14937,7 +14592,6 @@
     </row>
     <row r="489" spans="1:26" ht="19.5" customHeight="1">
       <c r="A489" s="1"/>
-      <c r="B489" s="1"/>
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
@@ -14965,7 +14619,6 @@
     </row>
     <row r="490" spans="1:26" ht="19.5" customHeight="1">
       <c r="A490" s="1"/>
-      <c r="B490" s="1"/>
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
@@ -14993,7 +14646,6 @@
     </row>
     <row r="491" spans="1:26" ht="19.5" customHeight="1">
       <c r="A491" s="1"/>
-      <c r="B491" s="1"/>
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
@@ -15021,7 +14673,6 @@
     </row>
     <row r="492" spans="1:26" ht="19.5" customHeight="1">
       <c r="A492" s="1"/>
-      <c r="B492" s="1"/>
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
@@ -15049,7 +14700,6 @@
     </row>
     <row r="493" spans="1:26" ht="19.5" customHeight="1">
       <c r="A493" s="1"/>
-      <c r="B493" s="1"/>
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
@@ -15077,7 +14727,6 @@
     </row>
     <row r="494" spans="1:26" ht="19.5" customHeight="1">
       <c r="A494" s="1"/>
-      <c r="B494" s="1"/>
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
@@ -15105,7 +14754,6 @@
     </row>
     <row r="495" spans="1:26" ht="19.5" customHeight="1">
       <c r="A495" s="1"/>
-      <c r="B495" s="1"/>
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
@@ -15133,7 +14781,6 @@
     </row>
     <row r="496" spans="1:26" ht="19.5" customHeight="1">
       <c r="A496" s="1"/>
-      <c r="B496" s="1"/>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
@@ -15161,7 +14808,6 @@
     </row>
     <row r="497" spans="1:26" ht="19.5" customHeight="1">
       <c r="A497" s="1"/>
-      <c r="B497" s="1"/>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
@@ -15189,7 +14835,6 @@
     </row>
     <row r="498" spans="1:26" ht="19.5" customHeight="1">
       <c r="A498" s="1"/>
-      <c r="B498" s="1"/>
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
@@ -15217,7 +14862,6 @@
     </row>
     <row r="499" spans="1:26" ht="19.5" customHeight="1">
       <c r="A499" s="1"/>
-      <c r="B499" s="1"/>
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
@@ -15245,7 +14889,6 @@
     </row>
     <row r="500" spans="1:26" ht="19.5" customHeight="1">
       <c r="A500" s="1"/>
-      <c r="B500" s="1"/>
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
@@ -15273,7 +14916,6 @@
     </row>
     <row r="501" spans="1:26" ht="19.5" customHeight="1">
       <c r="A501" s="1"/>
-      <c r="B501" s="1"/>
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
@@ -15301,7 +14943,6 @@
     </row>
     <row r="502" spans="1:26" ht="19.5" customHeight="1">
       <c r="A502" s="1"/>
-      <c r="B502" s="1"/>
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
@@ -15329,7 +14970,6 @@
     </row>
     <row r="503" spans="1:26" ht="19.5" customHeight="1">
       <c r="A503" s="1"/>
-      <c r="B503" s="1"/>
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
@@ -15357,7 +14997,6 @@
     </row>
     <row r="504" spans="1:26" ht="19.5" customHeight="1">
       <c r="A504" s="1"/>
-      <c r="B504" s="1"/>
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
@@ -15385,7 +15024,6 @@
     </row>
     <row r="505" spans="1:26" ht="19.5" customHeight="1">
       <c r="A505" s="1"/>
-      <c r="B505" s="1"/>
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
@@ -15413,7 +15051,6 @@
     </row>
     <row r="506" spans="1:26" ht="19.5" customHeight="1">
       <c r="A506" s="1"/>
-      <c r="B506" s="1"/>
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
@@ -15441,7 +15078,6 @@
     </row>
     <row r="507" spans="1:26" ht="19.5" customHeight="1">
       <c r="A507" s="1"/>
-      <c r="B507" s="1"/>
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
@@ -15469,7 +15105,6 @@
     </row>
     <row r="508" spans="1:26" ht="19.5" customHeight="1">
       <c r="A508" s="1"/>
-      <c r="B508" s="1"/>
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
@@ -15497,7 +15132,6 @@
     </row>
     <row r="509" spans="1:26" ht="19.5" customHeight="1">
       <c r="A509" s="1"/>
-      <c r="B509" s="1"/>
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
@@ -15525,7 +15159,6 @@
     </row>
     <row r="510" spans="1:26" ht="19.5" customHeight="1">
       <c r="A510" s="1"/>
-      <c r="B510" s="1"/>
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
@@ -15553,7 +15186,6 @@
     </row>
     <row r="511" spans="1:26" ht="19.5" customHeight="1">
       <c r="A511" s="1"/>
-      <c r="B511" s="1"/>
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
@@ -15581,7 +15213,6 @@
     </row>
     <row r="512" spans="1:26" ht="19.5" customHeight="1">
       <c r="A512" s="1"/>
-      <c r="B512" s="1"/>
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
@@ -15609,7 +15240,6 @@
     </row>
     <row r="513" spans="1:26" ht="19.5" customHeight="1">
       <c r="A513" s="1"/>
-      <c r="B513" s="1"/>
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
@@ -15637,7 +15267,6 @@
     </row>
     <row r="514" spans="1:26" ht="19.5" customHeight="1">
       <c r="A514" s="1"/>
-      <c r="B514" s="1"/>
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
@@ -15665,7 +15294,6 @@
     </row>
     <row r="515" spans="1:26" ht="19.5" customHeight="1">
       <c r="A515" s="1"/>
-      <c r="B515" s="1"/>
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
@@ -15693,7 +15321,6 @@
     </row>
     <row r="516" spans="1:26" ht="19.5" customHeight="1">
       <c r="A516" s="1"/>
-      <c r="B516" s="1"/>
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
@@ -15721,7 +15348,6 @@
     </row>
     <row r="517" spans="1:26" ht="19.5" customHeight="1">
       <c r="A517" s="1"/>
-      <c r="B517" s="1"/>
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
@@ -15749,7 +15375,6 @@
     </row>
     <row r="518" spans="1:26" ht="19.5" customHeight="1">
       <c r="A518" s="1"/>
-      <c r="B518" s="1"/>
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
@@ -15777,7 +15402,6 @@
     </row>
     <row r="519" spans="1:26" ht="19.5" customHeight="1">
       <c r="A519" s="1"/>
-      <c r="B519" s="1"/>
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
@@ -15805,7 +15429,6 @@
     </row>
     <row r="520" spans="1:26" ht="19.5" customHeight="1">
       <c r="A520" s="1"/>
-      <c r="B520" s="1"/>
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
@@ -15833,7 +15456,6 @@
     </row>
     <row r="521" spans="1:26" ht="19.5" customHeight="1">
       <c r="A521" s="1"/>
-      <c r="B521" s="1"/>
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
@@ -15861,7 +15483,6 @@
     </row>
     <row r="522" spans="1:26" ht="19.5" customHeight="1">
       <c r="A522" s="1"/>
-      <c r="B522" s="1"/>
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
@@ -15889,7 +15510,6 @@
     </row>
     <row r="523" spans="1:26" ht="19.5" customHeight="1">
       <c r="A523" s="1"/>
-      <c r="B523" s="1"/>
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
@@ -15917,7 +15537,6 @@
     </row>
     <row r="524" spans="1:26" ht="19.5" customHeight="1">
       <c r="A524" s="1"/>
-      <c r="B524" s="1"/>
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
@@ -15945,7 +15564,6 @@
     </row>
     <row r="525" spans="1:26" ht="19.5" customHeight="1">
       <c r="A525" s="1"/>
-      <c r="B525" s="1"/>
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
@@ -15973,7 +15591,6 @@
     </row>
     <row r="526" spans="1:26" ht="19.5" customHeight="1">
       <c r="A526" s="1"/>
-      <c r="B526" s="1"/>
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
@@ -16001,7 +15618,6 @@
     </row>
     <row r="527" spans="1:26" ht="19.5" customHeight="1">
       <c r="A527" s="1"/>
-      <c r="B527" s="1"/>
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
@@ -16029,7 +15645,6 @@
     </row>
     <row r="528" spans="1:26" ht="19.5" customHeight="1">
       <c r="A528" s="1"/>
-      <c r="B528" s="1"/>
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
@@ -16057,7 +15672,6 @@
     </row>
     <row r="529" spans="1:26" ht="19.5" customHeight="1">
       <c r="A529" s="1"/>
-      <c r="B529" s="1"/>
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
@@ -16085,7 +15699,6 @@
     </row>
     <row r="530" spans="1:26" ht="19.5" customHeight="1">
       <c r="A530" s="1"/>
-      <c r="B530" s="1"/>
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
@@ -16113,7 +15726,6 @@
     </row>
     <row r="531" spans="1:26" ht="19.5" customHeight="1">
       <c r="A531" s="1"/>
-      <c r="B531" s="1"/>
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
@@ -16141,7 +15753,6 @@
     </row>
     <row r="532" spans="1:26" ht="19.5" customHeight="1">
       <c r="A532" s="1"/>
-      <c r="B532" s="1"/>
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
@@ -16169,7 +15780,6 @@
     </row>
     <row r="533" spans="1:26" ht="19.5" customHeight="1">
       <c r="A533" s="1"/>
-      <c r="B533" s="1"/>
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
@@ -16197,7 +15807,6 @@
     </row>
     <row r="534" spans="1:26" ht="19.5" customHeight="1">
       <c r="A534" s="1"/>
-      <c r="B534" s="1"/>
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
@@ -16225,7 +15834,6 @@
     </row>
     <row r="535" spans="1:26" ht="19.5" customHeight="1">
       <c r="A535" s="1"/>
-      <c r="B535" s="1"/>
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
@@ -16253,7 +15861,6 @@
     </row>
     <row r="536" spans="1:26" ht="19.5" customHeight="1">
       <c r="A536" s="1"/>
-      <c r="B536" s="1"/>
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
@@ -16281,7 +15888,6 @@
     </row>
     <row r="537" spans="1:26" ht="19.5" customHeight="1">
       <c r="A537" s="1"/>
-      <c r="B537" s="1"/>
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
@@ -16309,7 +15915,6 @@
     </row>
     <row r="538" spans="1:26" ht="19.5" customHeight="1">
       <c r="A538" s="1"/>
-      <c r="B538" s="1"/>
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
@@ -16337,7 +15942,6 @@
     </row>
     <row r="539" spans="1:26" ht="19.5" customHeight="1">
       <c r="A539" s="1"/>
-      <c r="B539" s="1"/>
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
@@ -16365,7 +15969,6 @@
     </row>
     <row r="540" spans="1:26" ht="19.5" customHeight="1">
       <c r="A540" s="1"/>
-      <c r="B540" s="1"/>
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
@@ -16393,7 +15996,6 @@
     </row>
     <row r="541" spans="1:26" ht="19.5" customHeight="1">
       <c r="A541" s="1"/>
-      <c r="B541" s="1"/>
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
@@ -16421,7 +16023,6 @@
     </row>
     <row r="542" spans="1:26" ht="19.5" customHeight="1">
       <c r="A542" s="1"/>
-      <c r="B542" s="1"/>
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
@@ -16449,7 +16050,6 @@
     </row>
     <row r="543" spans="1:26" ht="19.5" customHeight="1">
       <c r="A543" s="1"/>
-      <c r="B543" s="1"/>
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
@@ -16477,7 +16077,6 @@
     </row>
     <row r="544" spans="1:26" ht="19.5" customHeight="1">
       <c r="A544" s="1"/>
-      <c r="B544" s="1"/>
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
@@ -16505,7 +16104,6 @@
     </row>
     <row r="545" spans="1:26" ht="19.5" customHeight="1">
       <c r="A545" s="1"/>
-      <c r="B545" s="1"/>
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
@@ -16533,7 +16131,6 @@
     </row>
     <row r="546" spans="1:26" ht="19.5" customHeight="1">
       <c r="A546" s="1"/>
-      <c r="B546" s="1"/>
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
@@ -16561,7 +16158,6 @@
     </row>
     <row r="547" spans="1:26" ht="19.5" customHeight="1">
       <c r="A547" s="1"/>
-      <c r="B547" s="1"/>
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
@@ -16589,7 +16185,6 @@
     </row>
     <row r="548" spans="1:26" ht="19.5" customHeight="1">
       <c r="A548" s="1"/>
-      <c r="B548" s="1"/>
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
@@ -16617,7 +16212,6 @@
     </row>
     <row r="549" spans="1:26" ht="19.5" customHeight="1">
       <c r="A549" s="1"/>
-      <c r="B549" s="1"/>
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
@@ -16645,7 +16239,6 @@
     </row>
     <row r="550" spans="1:26" ht="19.5" customHeight="1">
       <c r="A550" s="1"/>
-      <c r="B550" s="1"/>
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
@@ -16673,7 +16266,6 @@
     </row>
     <row r="551" spans="1:26" ht="19.5" customHeight="1">
       <c r="A551" s="1"/>
-      <c r="B551" s="1"/>
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
@@ -16701,7 +16293,6 @@
     </row>
     <row r="552" spans="1:26" ht="19.5" customHeight="1">
       <c r="A552" s="1"/>
-      <c r="B552" s="1"/>
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
@@ -16729,7 +16320,6 @@
     </row>
     <row r="553" spans="1:26" ht="19.5" customHeight="1">
       <c r="A553" s="1"/>
-      <c r="B553" s="1"/>
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
@@ -16757,7 +16347,6 @@
     </row>
     <row r="554" spans="1:26" ht="19.5" customHeight="1">
       <c r="A554" s="1"/>
-      <c r="B554" s="1"/>
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
@@ -16785,7 +16374,6 @@
     </row>
     <row r="555" spans="1:26" ht="19.5" customHeight="1">
       <c r="A555" s="1"/>
-      <c r="B555" s="1"/>
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
@@ -16813,7 +16401,6 @@
     </row>
     <row r="556" spans="1:26" ht="19.5" customHeight="1">
       <c r="A556" s="1"/>
-      <c r="B556" s="1"/>
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
@@ -16841,7 +16428,6 @@
     </row>
     <row r="557" spans="1:26" ht="19.5" customHeight="1">
       <c r="A557" s="1"/>
-      <c r="B557" s="1"/>
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
@@ -16869,7 +16455,6 @@
     </row>
     <row r="558" spans="1:26" ht="19.5" customHeight="1">
       <c r="A558" s="1"/>
-      <c r="B558" s="1"/>
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
@@ -16897,7 +16482,6 @@
     </row>
     <row r="559" spans="1:26" ht="19.5" customHeight="1">
       <c r="A559" s="1"/>
-      <c r="B559" s="1"/>
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
@@ -16925,7 +16509,6 @@
     </row>
     <row r="560" spans="1:26" ht="19.5" customHeight="1">
       <c r="A560" s="1"/>
-      <c r="B560" s="1"/>
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
@@ -16953,7 +16536,6 @@
     </row>
     <row r="561" spans="1:26" ht="19.5" customHeight="1">
       <c r="A561" s="1"/>
-      <c r="B561" s="1"/>
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
@@ -16981,7 +16563,6 @@
     </row>
     <row r="562" spans="1:26" ht="19.5" customHeight="1">
       <c r="A562" s="1"/>
-      <c r="B562" s="1"/>
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
@@ -17009,7 +16590,6 @@
     </row>
     <row r="563" spans="1:26" ht="19.5" customHeight="1">
       <c r="A563" s="1"/>
-      <c r="B563" s="1"/>
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
@@ -17037,7 +16617,6 @@
     </row>
     <row r="564" spans="1:26" ht="19.5" customHeight="1">
       <c r="A564" s="1"/>
-      <c r="B564" s="1"/>
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
@@ -17065,7 +16644,6 @@
     </row>
     <row r="565" spans="1:26" ht="19.5" customHeight="1">
       <c r="A565" s="1"/>
-      <c r="B565" s="1"/>
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
@@ -17093,7 +16671,6 @@
     </row>
     <row r="566" spans="1:26" ht="19.5" customHeight="1">
       <c r="A566" s="1"/>
-      <c r="B566" s="1"/>
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
@@ -17121,7 +16698,6 @@
     </row>
     <row r="567" spans="1:26" ht="19.5" customHeight="1">
       <c r="A567" s="1"/>
-      <c r="B567" s="1"/>
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
@@ -17149,7 +16725,6 @@
     </row>
     <row r="568" spans="1:26" ht="19.5" customHeight="1">
       <c r="A568" s="1"/>
-      <c r="B568" s="1"/>
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
@@ -17177,7 +16752,6 @@
     </row>
     <row r="569" spans="1:26" ht="19.5" customHeight="1">
       <c r="A569" s="1"/>
-      <c r="B569" s="1"/>
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
@@ -17205,7 +16779,6 @@
     </row>
     <row r="570" spans="1:26" ht="19.5" customHeight="1">
       <c r="A570" s="1"/>
-      <c r="B570" s="1"/>
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
@@ -17233,7 +16806,6 @@
     </row>
     <row r="571" spans="1:26" ht="19.5" customHeight="1">
       <c r="A571" s="1"/>
-      <c r="B571" s="1"/>
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
@@ -17261,7 +16833,6 @@
     </row>
     <row r="572" spans="1:26" ht="19.5" customHeight="1">
       <c r="A572" s="1"/>
-      <c r="B572" s="1"/>
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
@@ -17289,7 +16860,6 @@
     </row>
     <row r="573" spans="1:26" ht="19.5" customHeight="1">
       <c r="A573" s="1"/>
-      <c r="B573" s="1"/>
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
@@ -17317,7 +16887,6 @@
     </row>
     <row r="574" spans="1:26" ht="19.5" customHeight="1">
       <c r="A574" s="1"/>
-      <c r="B574" s="1"/>
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
@@ -17345,7 +16914,6 @@
     </row>
     <row r="575" spans="1:26" ht="19.5" customHeight="1">
       <c r="A575" s="1"/>
-      <c r="B575" s="1"/>
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
@@ -17373,7 +16941,6 @@
     </row>
     <row r="576" spans="1:26" ht="19.5" customHeight="1">
       <c r="A576" s="1"/>
-      <c r="B576" s="1"/>
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
@@ -17401,7 +16968,6 @@
     </row>
     <row r="577" spans="1:26" ht="19.5" customHeight="1">
       <c r="A577" s="1"/>
-      <c r="B577" s="1"/>
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
@@ -17429,7 +16995,6 @@
     </row>
     <row r="578" spans="1:26" ht="19.5" customHeight="1">
       <c r="A578" s="1"/>
-      <c r="B578" s="1"/>
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
@@ -17457,7 +17022,6 @@
     </row>
     <row r="579" spans="1:26" ht="19.5" customHeight="1">
       <c r="A579" s="1"/>
-      <c r="B579" s="1"/>
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
@@ -17485,7 +17049,6 @@
     </row>
     <row r="580" spans="1:26" ht="19.5" customHeight="1">
       <c r="A580" s="1"/>
-      <c r="B580" s="1"/>
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
@@ -17513,7 +17076,6 @@
     </row>
     <row r="581" spans="1:26" ht="19.5" customHeight="1">
       <c r="A581" s="1"/>
-      <c r="B581" s="1"/>
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
@@ -17541,7 +17103,6 @@
     </row>
     <row r="582" spans="1:26" ht="19.5" customHeight="1">
       <c r="A582" s="1"/>
-      <c r="B582" s="1"/>
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
@@ -17569,7 +17130,6 @@
     </row>
     <row r="583" spans="1:26" ht="19.5" customHeight="1">
       <c r="A583" s="1"/>
-      <c r="B583" s="1"/>
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
@@ -17597,7 +17157,6 @@
     </row>
     <row r="584" spans="1:26" ht="19.5" customHeight="1">
       <c r="A584" s="1"/>
-      <c r="B584" s="1"/>
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
@@ -17625,7 +17184,6 @@
     </row>
     <row r="585" spans="1:26" ht="19.5" customHeight="1">
       <c r="A585" s="1"/>
-      <c r="B585" s="1"/>
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
@@ -17653,7 +17211,6 @@
     </row>
     <row r="586" spans="1:26" ht="19.5" customHeight="1">
       <c r="A586" s="1"/>
-      <c r="B586" s="1"/>
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
@@ -17681,7 +17238,6 @@
     </row>
     <row r="587" spans="1:26" ht="19.5" customHeight="1">
       <c r="A587" s="1"/>
-      <c r="B587" s="1"/>
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
@@ -17709,7 +17265,6 @@
     </row>
     <row r="588" spans="1:26" ht="19.5" customHeight="1">
       <c r="A588" s="1"/>
-      <c r="B588" s="1"/>
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
@@ -17737,7 +17292,6 @@
     </row>
     <row r="589" spans="1:26" ht="19.5" customHeight="1">
       <c r="A589" s="1"/>
-      <c r="B589" s="1"/>
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
@@ -17765,7 +17319,6 @@
     </row>
     <row r="590" spans="1:26" ht="19.5" customHeight="1">
       <c r="A590" s="1"/>
-      <c r="B590" s="1"/>
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
@@ -17793,7 +17346,6 @@
     </row>
     <row r="591" spans="1:26" ht="19.5" customHeight="1">
       <c r="A591" s="1"/>
-      <c r="B591" s="1"/>
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
@@ -17821,7 +17373,6 @@
     </row>
     <row r="592" spans="1:26" ht="19.5" customHeight="1">
       <c r="A592" s="1"/>
-      <c r="B592" s="1"/>
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
@@ -17849,7 +17400,6 @@
     </row>
     <row r="593" spans="1:26" ht="19.5" customHeight="1">
       <c r="A593" s="1"/>
-      <c r="B593" s="1"/>
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
@@ -17877,7 +17427,6 @@
     </row>
     <row r="594" spans="1:26" ht="19.5" customHeight="1">
       <c r="A594" s="1"/>
-      <c r="B594" s="1"/>
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
@@ -17905,7 +17454,6 @@
     </row>
     <row r="595" spans="1:26" ht="19.5" customHeight="1">
       <c r="A595" s="1"/>
-      <c r="B595" s="1"/>
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
@@ -17933,7 +17481,6 @@
     </row>
     <row r="596" spans="1:26" ht="19.5" customHeight="1">
       <c r="A596" s="1"/>
-      <c r="B596" s="1"/>
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
@@ -17961,7 +17508,6 @@
     </row>
     <row r="597" spans="1:26" ht="19.5" customHeight="1">
       <c r="A597" s="1"/>
-      <c r="B597" s="1"/>
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
@@ -17989,7 +17535,6 @@
     </row>
     <row r="598" spans="1:26" ht="19.5" customHeight="1">
       <c r="A598" s="1"/>
-      <c r="B598" s="1"/>
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
@@ -18017,7 +17562,6 @@
     </row>
     <row r="599" spans="1:26" ht="19.5" customHeight="1">
       <c r="A599" s="1"/>
-      <c r="B599" s="1"/>
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
@@ -18045,7 +17589,6 @@
     </row>
     <row r="600" spans="1:26" ht="19.5" customHeight="1">
       <c r="A600" s="1"/>
-      <c r="B600" s="1"/>
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
@@ -18073,7 +17616,6 @@
     </row>
     <row r="601" spans="1:26" ht="19.5" customHeight="1">
       <c r="A601" s="1"/>
-      <c r="B601" s="1"/>
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
@@ -18101,7 +17643,6 @@
     </row>
     <row r="602" spans="1:26" ht="19.5" customHeight="1">
       <c r="A602" s="1"/>
-      <c r="B602" s="1"/>
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
@@ -18129,7 +17670,6 @@
     </row>
     <row r="603" spans="1:26" ht="19.5" customHeight="1">
       <c r="A603" s="1"/>
-      <c r="B603" s="1"/>
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
@@ -18157,7 +17697,6 @@
     </row>
     <row r="604" spans="1:26" ht="19.5" customHeight="1">
       <c r="A604" s="1"/>
-      <c r="B604" s="1"/>
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
@@ -18185,7 +17724,6 @@
     </row>
     <row r="605" spans="1:26" ht="19.5" customHeight="1">
       <c r="A605" s="1"/>
-      <c r="B605" s="1"/>
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
@@ -18213,7 +17751,6 @@
     </row>
     <row r="606" spans="1:26" ht="19.5" customHeight="1">
       <c r="A606" s="1"/>
-      <c r="B606" s="1"/>
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
@@ -18241,7 +17778,6 @@
     </row>
     <row r="607" spans="1:26" ht="19.5" customHeight="1">
       <c r="A607" s="1"/>
-      <c r="B607" s="1"/>
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
@@ -18269,7 +17805,6 @@
     </row>
     <row r="608" spans="1:26" ht="19.5" customHeight="1">
       <c r="A608" s="1"/>
-      <c r="B608" s="1"/>
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
@@ -18297,7 +17832,6 @@
     </row>
     <row r="609" spans="1:26" ht="19.5" customHeight="1">
       <c r="A609" s="1"/>
-      <c r="B609" s="1"/>
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
@@ -18325,7 +17859,6 @@
     </row>
     <row r="610" spans="1:26" ht="19.5" customHeight="1">
       <c r="A610" s="1"/>
-      <c r="B610" s="1"/>
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
@@ -18353,7 +17886,6 @@
     </row>
     <row r="611" spans="1:26" ht="19.5" customHeight="1">
       <c r="A611" s="1"/>
-      <c r="B611" s="1"/>
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
@@ -18381,7 +17913,6 @@
     </row>
     <row r="612" spans="1:26" ht="19.5" customHeight="1">
       <c r="A612" s="1"/>
-      <c r="B612" s="1"/>
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
@@ -18409,7 +17940,6 @@
     </row>
     <row r="613" spans="1:26" ht="19.5" customHeight="1">
       <c r="A613" s="1"/>
-      <c r="B613" s="1"/>
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
@@ -18437,7 +17967,6 @@
     </row>
     <row r="614" spans="1:26" ht="19.5" customHeight="1">
       <c r="A614" s="1"/>
-      <c r="B614" s="1"/>
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
@@ -18465,7 +17994,6 @@
     </row>
     <row r="615" spans="1:26" ht="19.5" customHeight="1">
       <c r="A615" s="1"/>
-      <c r="B615" s="1"/>
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
@@ -18493,7 +18021,6 @@
     </row>
     <row r="616" spans="1:26" ht="19.5" customHeight="1">
       <c r="A616" s="1"/>
-      <c r="B616" s="1"/>
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
@@ -18521,7 +18048,6 @@
     </row>
     <row r="617" spans="1:26" ht="19.5" customHeight="1">
       <c r="A617" s="1"/>
-      <c r="B617" s="1"/>
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
@@ -18549,7 +18075,6 @@
     </row>
     <row r="618" spans="1:26" ht="19.5" customHeight="1">
       <c r="A618" s="1"/>
-      <c r="B618" s="1"/>
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
@@ -18577,7 +18102,6 @@
     </row>
     <row r="619" spans="1:26" ht="19.5" customHeight="1">
       <c r="A619" s="1"/>
-      <c r="B619" s="1"/>
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
@@ -18605,7 +18129,6 @@
     </row>
     <row r="620" spans="1:26" ht="19.5" customHeight="1">
       <c r="A620" s="1"/>
-      <c r="B620" s="1"/>
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
@@ -18633,7 +18156,6 @@
     </row>
     <row r="621" spans="1:26" ht="19.5" customHeight="1">
       <c r="A621" s="1"/>
-      <c r="B621" s="1"/>
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
@@ -18661,7 +18183,6 @@
     </row>
     <row r="622" spans="1:26" ht="19.5" customHeight="1">
       <c r="A622" s="1"/>
-      <c r="B622" s="1"/>
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
@@ -18689,7 +18210,6 @@
     </row>
     <row r="623" spans="1:26" ht="19.5" customHeight="1">
       <c r="A623" s="1"/>
-      <c r="B623" s="1"/>
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
@@ -18717,7 +18237,6 @@
     </row>
     <row r="624" spans="1:26" ht="19.5" customHeight="1">
       <c r="A624" s="1"/>
-      <c r="B624" s="1"/>
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
@@ -18745,7 +18264,6 @@
     </row>
     <row r="625" spans="1:26" ht="19.5" customHeight="1">
       <c r="A625" s="1"/>
-      <c r="B625" s="1"/>
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
@@ -18773,7 +18291,6 @@
     </row>
     <row r="626" spans="1:26" ht="19.5" customHeight="1">
       <c r="A626" s="1"/>
-      <c r="B626" s="1"/>
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
@@ -18801,7 +18318,6 @@
     </row>
     <row r="627" spans="1:26" ht="19.5" customHeight="1">
       <c r="A627" s="1"/>
-      <c r="B627" s="1"/>
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
@@ -18829,7 +18345,6 @@
     </row>
     <row r="628" spans="1:26" ht="19.5" customHeight="1">
       <c r="A628" s="1"/>
-      <c r="B628" s="1"/>
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
@@ -18857,7 +18372,6 @@
     </row>
     <row r="629" spans="1:26" ht="19.5" customHeight="1">
       <c r="A629" s="1"/>
-      <c r="B629" s="1"/>
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
@@ -18885,7 +18399,6 @@
     </row>
     <row r="630" spans="1:26" ht="19.5" customHeight="1">
       <c r="A630" s="1"/>
-      <c r="B630" s="1"/>
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
@@ -18913,7 +18426,6 @@
     </row>
     <row r="631" spans="1:26" ht="19.5" customHeight="1">
       <c r="A631" s="1"/>
-      <c r="B631" s="1"/>
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
@@ -18941,7 +18453,6 @@
     </row>
     <row r="632" spans="1:26" ht="19.5" customHeight="1">
       <c r="A632" s="1"/>
-      <c r="B632" s="1"/>
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
@@ -18969,7 +18480,6 @@
     </row>
     <row r="633" spans="1:26" ht="19.5" customHeight="1">
       <c r="A633" s="1"/>
-      <c r="B633" s="1"/>
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
@@ -18997,7 +18507,6 @@
     </row>
     <row r="634" spans="1:26" ht="19.5" customHeight="1">
       <c r="A634" s="1"/>
-      <c r="B634" s="1"/>
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
@@ -19025,7 +18534,6 @@
     </row>
     <row r="635" spans="1:26" ht="19.5" customHeight="1">
       <c r="A635" s="1"/>
-      <c r="B635" s="1"/>
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
@@ -19053,7 +18561,6 @@
     </row>
     <row r="636" spans="1:26" ht="19.5" customHeight="1">
       <c r="A636" s="1"/>
-      <c r="B636" s="1"/>
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
@@ -19081,7 +18588,6 @@
     </row>
     <row r="637" spans="1:26" ht="19.5" customHeight="1">
       <c r="A637" s="1"/>
-      <c r="B637" s="1"/>
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
@@ -19109,7 +18615,6 @@
     </row>
     <row r="638" spans="1:26" ht="19.5" customHeight="1">
       <c r="A638" s="1"/>
-      <c r="B638" s="1"/>
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
@@ -19137,7 +18642,6 @@
     </row>
     <row r="639" spans="1:26" ht="19.5" customHeight="1">
       <c r="A639" s="1"/>
-      <c r="B639" s="1"/>
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
@@ -19165,7 +18669,6 @@
     </row>
     <row r="640" spans="1:26" ht="19.5" customHeight="1">
       <c r="A640" s="1"/>
-      <c r="B640" s="1"/>
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
@@ -19193,7 +18696,6 @@
     </row>
     <row r="641" spans="1:26" ht="19.5" customHeight="1">
       <c r="A641" s="1"/>
-      <c r="B641" s="1"/>
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
@@ -19221,7 +18723,6 @@
     </row>
     <row r="642" spans="1:26" ht="19.5" customHeight="1">
       <c r="A642" s="1"/>
-      <c r="B642" s="1"/>
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
@@ -19249,7 +18750,6 @@
     </row>
     <row r="643" spans="1:26" ht="19.5" customHeight="1">
       <c r="A643" s="1"/>
-      <c r="B643" s="1"/>
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
@@ -19277,7 +18777,6 @@
     </row>
     <row r="644" spans="1:26" ht="19.5" customHeight="1">
       <c r="A644" s="1"/>
-      <c r="B644" s="1"/>
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
@@ -19305,7 +18804,6 @@
     </row>
     <row r="645" spans="1:26" ht="19.5" customHeight="1">
       <c r="A645" s="1"/>
-      <c r="B645" s="1"/>
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
@@ -19333,7 +18831,6 @@
     </row>
     <row r="646" spans="1:26" ht="19.5" customHeight="1">
       <c r="A646" s="1"/>
-      <c r="B646" s="1"/>
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
@@ -19361,7 +18858,6 @@
     </row>
     <row r="647" spans="1:26" ht="19.5" customHeight="1">
       <c r="A647" s="1"/>
-      <c r="B647" s="1"/>
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
@@ -19389,7 +18885,6 @@
     </row>
     <row r="648" spans="1:26" ht="19.5" customHeight="1">
       <c r="A648" s="1"/>
-      <c r="B648" s="1"/>
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
@@ -19417,7 +18912,6 @@
     </row>
     <row r="649" spans="1:26" ht="19.5" customHeight="1">
       <c r="A649" s="1"/>
-      <c r="B649" s="1"/>
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
@@ -19445,7 +18939,6 @@
     </row>
     <row r="650" spans="1:26" ht="19.5" customHeight="1">
       <c r="A650" s="1"/>
-      <c r="B650" s="1"/>
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
@@ -19473,7 +18966,6 @@
     </row>
     <row r="651" spans="1:26" ht="19.5" customHeight="1">
       <c r="A651" s="1"/>
-      <c r="B651" s="1"/>
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
@@ -19501,7 +18993,6 @@
     </row>
     <row r="652" spans="1:26" ht="19.5" customHeight="1">
       <c r="A652" s="1"/>
-      <c r="B652" s="1"/>
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
@@ -19529,7 +19020,6 @@
     </row>
     <row r="653" spans="1:26" ht="19.5" customHeight="1">
       <c r="A653" s="1"/>
-      <c r="B653" s="1"/>
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
@@ -19557,7 +19047,6 @@
     </row>
     <row r="654" spans="1:26" ht="19.5" customHeight="1">
       <c r="A654" s="1"/>
-      <c r="B654" s="1"/>
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
@@ -19585,7 +19074,6 @@
     </row>
     <row r="655" spans="1:26" ht="19.5" customHeight="1">
       <c r="A655" s="1"/>
-      <c r="B655" s="1"/>
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
@@ -19613,7 +19101,6 @@
     </row>
     <row r="656" spans="1:26" ht="19.5" customHeight="1">
       <c r="A656" s="1"/>
-      <c r="B656" s="1"/>
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
@@ -19641,7 +19128,6 @@
     </row>
     <row r="657" spans="1:26" ht="19.5" customHeight="1">
       <c r="A657" s="1"/>
-      <c r="B657" s="1"/>
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
@@ -19669,7 +19155,6 @@
     </row>
     <row r="658" spans="1:26" ht="19.5" customHeight="1">
       <c r="A658" s="1"/>
-      <c r="B658" s="1"/>
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
@@ -19697,7 +19182,6 @@
     </row>
     <row r="659" spans="1:26" ht="19.5" customHeight="1">
       <c r="A659" s="1"/>
-      <c r="B659" s="1"/>
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
@@ -19725,7 +19209,6 @@
     </row>
     <row r="660" spans="1:26" ht="19.5" customHeight="1">
       <c r="A660" s="1"/>
-      <c r="B660" s="1"/>
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
@@ -19753,7 +19236,6 @@
     </row>
     <row r="661" spans="1:26" ht="19.5" customHeight="1">
       <c r="A661" s="1"/>
-      <c r="B661" s="1"/>
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
@@ -19781,7 +19263,6 @@
     </row>
     <row r="662" spans="1:26" ht="19.5" customHeight="1">
       <c r="A662" s="1"/>
-      <c r="B662" s="1"/>
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
@@ -19809,7 +19290,6 @@
     </row>
     <row r="663" spans="1:26" ht="19.5" customHeight="1">
       <c r="A663" s="1"/>
-      <c r="B663" s="1"/>
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
@@ -19837,7 +19317,6 @@
     </row>
     <row r="664" spans="1:26" ht="19.5" customHeight="1">
       <c r="A664" s="1"/>
-      <c r="B664" s="1"/>
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
@@ -19865,7 +19344,6 @@
     </row>
     <row r="665" spans="1:26" ht="19.5" customHeight="1">
       <c r="A665" s="1"/>
-      <c r="B665" s="1"/>
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
@@ -19893,7 +19371,6 @@
     </row>
     <row r="666" spans="1:26" ht="19.5" customHeight="1">
       <c r="A666" s="1"/>
-      <c r="B666" s="1"/>
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
@@ -19921,7 +19398,6 @@
     </row>
     <row r="667" spans="1:26" ht="19.5" customHeight="1">
       <c r="A667" s="1"/>
-      <c r="B667" s="1"/>
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
@@ -19949,7 +19425,6 @@
     </row>
     <row r="668" spans="1:26" ht="19.5" customHeight="1">
       <c r="A668" s="1"/>
-      <c r="B668" s="1"/>
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
@@ -19977,7 +19452,6 @@
     </row>
     <row r="669" spans="1:26" ht="19.5" customHeight="1">
       <c r="A669" s="1"/>
-      <c r="B669" s="1"/>
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
@@ -20005,7 +19479,6 @@
     </row>
     <row r="670" spans="1:26" ht="19.5" customHeight="1">
       <c r="A670" s="1"/>
-      <c r="B670" s="1"/>
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
@@ -20033,7 +19506,6 @@
     </row>
     <row r="671" spans="1:26" ht="19.5" customHeight="1">
       <c r="A671" s="1"/>
-      <c r="B671" s="1"/>
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
@@ -20061,7 +19533,6 @@
     </row>
     <row r="672" spans="1:26" ht="19.5" customHeight="1">
       <c r="A672" s="1"/>
-      <c r="B672" s="1"/>
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
@@ -20089,7 +19560,6 @@
     </row>
     <row r="673" spans="1:26" ht="19.5" customHeight="1">
       <c r="A673" s="1"/>
-      <c r="B673" s="1"/>
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
@@ -20117,7 +19587,6 @@
     </row>
     <row r="674" spans="1:26" ht="19.5" customHeight="1">
       <c r="A674" s="1"/>
-      <c r="B674" s="1"/>
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
@@ -20145,7 +19614,6 @@
     </row>
     <row r="675" spans="1:26" ht="19.5" customHeight="1">
       <c r="A675" s="1"/>
-      <c r="B675" s="1"/>
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
@@ -20173,7 +19641,6 @@
     </row>
     <row r="676" spans="1:26" ht="19.5" customHeight="1">
       <c r="A676" s="1"/>
-      <c r="B676" s="1"/>
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
@@ -20201,7 +19668,6 @@
     </row>
     <row r="677" spans="1:26" ht="19.5" customHeight="1">
       <c r="A677" s="1"/>
-      <c r="B677" s="1"/>
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
@@ -20229,7 +19695,6 @@
     </row>
     <row r="678" spans="1:26" ht="19.5" customHeight="1">
       <c r="A678" s="1"/>
-      <c r="B678" s="1"/>
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
@@ -20257,7 +19722,6 @@
     </row>
     <row r="679" spans="1:26" ht="19.5" customHeight="1">
       <c r="A679" s="1"/>
-      <c r="B679" s="1"/>
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
@@ -20285,7 +19749,6 @@
     </row>
     <row r="680" spans="1:26" ht="19.5" customHeight="1">
       <c r="A680" s="1"/>
-      <c r="B680" s="1"/>
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
@@ -20313,7 +19776,6 @@
     </row>
     <row r="681" spans="1:26" ht="19.5" customHeight="1">
       <c r="A681" s="1"/>
-      <c r="B681" s="1"/>
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
@@ -20341,7 +19803,6 @@
     </row>
     <row r="682" spans="1:26" ht="19.5" customHeight="1">
       <c r="A682" s="1"/>
-      <c r="B682" s="1"/>
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
@@ -20369,7 +19830,6 @@
     </row>
     <row r="683" spans="1:26" ht="19.5" customHeight="1">
       <c r="A683" s="1"/>
-      <c r="B683" s="1"/>
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
@@ -20397,7 +19857,6 @@
     </row>
     <row r="684" spans="1:26" ht="19.5" customHeight="1">
       <c r="A684" s="1"/>
-      <c r="B684" s="1"/>
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
@@ -20425,7 +19884,6 @@
     </row>
     <row r="685" spans="1:26" ht="19.5" customHeight="1">
       <c r="A685" s="1"/>
-      <c r="B685" s="1"/>
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
@@ -20453,7 +19911,6 @@
     </row>
     <row r="686" spans="1:26" ht="19.5" customHeight="1">
       <c r="A686" s="1"/>
-      <c r="B686" s="1"/>
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
@@ -20481,7 +19938,6 @@
     </row>
     <row r="687" spans="1:26" ht="19.5" customHeight="1">
       <c r="A687" s="1"/>
-      <c r="B687" s="1"/>
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
@@ -20509,7 +19965,6 @@
     </row>
     <row r="688" spans="1:26" ht="19.5" customHeight="1">
       <c r="A688" s="1"/>
-      <c r="B688" s="1"/>
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
@@ -20537,7 +19992,6 @@
     </row>
     <row r="689" spans="1:26" ht="19.5" customHeight="1">
       <c r="A689" s="1"/>
-      <c r="B689" s="1"/>
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
@@ -20565,7 +20019,6 @@
     </row>
     <row r="690" spans="1:26" ht="19.5" customHeight="1">
       <c r="A690" s="1"/>
-      <c r="B690" s="1"/>
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
@@ -20593,7 +20046,6 @@
     </row>
     <row r="691" spans="1:26" ht="19.5" customHeight="1">
       <c r="A691" s="1"/>
-      <c r="B691" s="1"/>
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
@@ -20621,7 +20073,6 @@
     </row>
     <row r="692" spans="1:26" ht="19.5" customHeight="1">
       <c r="A692" s="1"/>
-      <c r="B692" s="1"/>
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
@@ -20649,7 +20100,6 @@
     </row>
     <row r="693" spans="1:26" ht="19.5" customHeight="1">
       <c r="A693" s="1"/>
-      <c r="B693" s="1"/>
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
@@ -20677,7 +20127,6 @@
     </row>
     <row r="694" spans="1:26" ht="19.5" customHeight="1">
       <c r="A694" s="1"/>
-      <c r="B694" s="1"/>
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
@@ -20705,7 +20154,6 @@
     </row>
     <row r="695" spans="1:26" ht="19.5" customHeight="1">
       <c r="A695" s="1"/>
-      <c r="B695" s="1"/>
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
@@ -20733,7 +20181,6 @@
     </row>
     <row r="696" spans="1:26" ht="19.5" customHeight="1">
       <c r="A696" s="1"/>
-      <c r="B696" s="1"/>
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
@@ -20761,7 +20208,6 @@
     </row>
     <row r="697" spans="1:26" ht="19.5" customHeight="1">
       <c r="A697" s="1"/>
-      <c r="B697" s="1"/>
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
@@ -20789,7 +20235,6 @@
     </row>
     <row r="698" spans="1:26" ht="19.5" customHeight="1">
       <c r="A698" s="1"/>
-      <c r="B698" s="1"/>
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
@@ -20817,7 +20262,6 @@
     </row>
     <row r="699" spans="1:26" ht="19.5" customHeight="1">
       <c r="A699" s="1"/>
-      <c r="B699" s="1"/>
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
@@ -20845,7 +20289,6 @@
     </row>
     <row r="700" spans="1:26" ht="19.5" customHeight="1">
       <c r="A700" s="1"/>
-      <c r="B700" s="1"/>
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
@@ -20873,7 +20316,6 @@
     </row>
     <row r="701" spans="1:26" ht="19.5" customHeight="1">
       <c r="A701" s="1"/>
-      <c r="B701" s="1"/>
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
@@ -20901,7 +20343,6 @@
     </row>
     <row r="702" spans="1:26" ht="19.5" customHeight="1">
       <c r="A702" s="1"/>
-      <c r="B702" s="1"/>
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
@@ -20929,7 +20370,6 @@
     </row>
     <row r="703" spans="1:26" ht="19.5" customHeight="1">
       <c r="A703" s="1"/>
-      <c r="B703" s="1"/>
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
@@ -20957,7 +20397,6 @@
     </row>
     <row r="704" spans="1:26" ht="19.5" customHeight="1">
       <c r="A704" s="1"/>
-      <c r="B704" s="1"/>
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
@@ -20985,7 +20424,6 @@
     </row>
     <row r="705" spans="1:26" ht="19.5" customHeight="1">
       <c r="A705" s="1"/>
-      <c r="B705" s="1"/>
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
@@ -21013,7 +20451,6 @@
     </row>
     <row r="706" spans="1:26" ht="19.5" customHeight="1">
       <c r="A706" s="1"/>
-      <c r="B706" s="1"/>
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
@@ -21041,7 +20478,6 @@
     </row>
     <row r="707" spans="1:26" ht="19.5" customHeight="1">
       <c r="A707" s="1"/>
-      <c r="B707" s="1"/>
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
@@ -21069,7 +20505,6 @@
     </row>
     <row r="708" spans="1:26" ht="19.5" customHeight="1">
       <c r="A708" s="1"/>
-      <c r="B708" s="1"/>
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
@@ -21097,7 +20532,6 @@
     </row>
     <row r="709" spans="1:26" ht="19.5" customHeight="1">
       <c r="A709" s="1"/>
-      <c r="B709" s="1"/>
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
@@ -21125,7 +20559,6 @@
     </row>
     <row r="710" spans="1:26" ht="19.5" customHeight="1">
       <c r="A710" s="1"/>
-      <c r="B710" s="1"/>
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
@@ -21153,7 +20586,6 @@
     </row>
     <row r="711" spans="1:26" ht="19.5" customHeight="1">
       <c r="A711" s="1"/>
-      <c r="B711" s="1"/>
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
@@ -21181,7 +20613,6 @@
     </row>
     <row r="712" spans="1:26" ht="19.5" customHeight="1">
       <c r="A712" s="1"/>
-      <c r="B712" s="1"/>
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
@@ -21209,7 +20640,6 @@
     </row>
     <row r="713" spans="1:26" ht="19.5" customHeight="1">
       <c r="A713" s="1"/>
-      <c r="B713" s="1"/>
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
@@ -21237,7 +20667,6 @@
     </row>
     <row r="714" spans="1:26" ht="19.5" customHeight="1">
       <c r="A714" s="1"/>
-      <c r="B714" s="1"/>
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
@@ -21265,7 +20694,6 @@
     </row>
     <row r="715" spans="1:26" ht="19.5" customHeight="1">
       <c r="A715" s="1"/>
-      <c r="B715" s="1"/>
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
@@ -21293,7 +20721,6 @@
     </row>
     <row r="716" spans="1:26" ht="19.5" customHeight="1">
       <c r="A716" s="1"/>
-      <c r="B716" s="1"/>
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
@@ -21321,7 +20748,6 @@
     </row>
     <row r="717" spans="1:26" ht="19.5" customHeight="1">
       <c r="A717" s="1"/>
-      <c r="B717" s="1"/>
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
@@ -21349,7 +20775,6 @@
     </row>
     <row r="718" spans="1:26" ht="19.5" customHeight="1">
       <c r="A718" s="1"/>
-      <c r="B718" s="1"/>
       <c r="C718" s="1"/>
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
@@ -21377,7 +20802,6 @@
     </row>
     <row r="719" spans="1:26" ht="19.5" customHeight="1">
       <c r="A719" s="1"/>
-      <c r="B719" s="1"/>
       <c r="C719" s="1"/>
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
@@ -21405,7 +20829,6 @@
     </row>
     <row r="720" spans="1:26" ht="19.5" customHeight="1">
       <c r="A720" s="1"/>
-      <c r="B720" s="1"/>
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
@@ -21433,7 +20856,6 @@
     </row>
     <row r="721" spans="1:26" ht="19.5" customHeight="1">
       <c r="A721" s="1"/>
-      <c r="B721" s="1"/>
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
@@ -21461,7 +20883,6 @@
     </row>
     <row r="722" spans="1:26" ht="19.5" customHeight="1">
       <c r="A722" s="1"/>
-      <c r="B722" s="1"/>
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
@@ -21489,7 +20910,6 @@
     </row>
     <row r="723" spans="1:26" ht="19.5" customHeight="1">
       <c r="A723" s="1"/>
-      <c r="B723" s="1"/>
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
@@ -21517,7 +20937,6 @@
     </row>
     <row r="724" spans="1:26" ht="19.5" customHeight="1">
       <c r="A724" s="1"/>
-      <c r="B724" s="1"/>
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
@@ -21545,7 +20964,6 @@
     </row>
     <row r="725" spans="1:26" ht="19.5" customHeight="1">
       <c r="A725" s="1"/>
-      <c r="B725" s="1"/>
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
@@ -21573,7 +20991,6 @@
     </row>
     <row r="726" spans="1:26" ht="19.5" customHeight="1">
       <c r="A726" s="1"/>
-      <c r="B726" s="1"/>
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
@@ -21601,7 +21018,6 @@
     </row>
     <row r="727" spans="1:26" ht="19.5" customHeight="1">
       <c r="A727" s="1"/>
-      <c r="B727" s="1"/>
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
@@ -21629,7 +21045,6 @@
     </row>
     <row r="728" spans="1:26" ht="19.5" customHeight="1">
       <c r="A728" s="1"/>
-      <c r="B728" s="1"/>
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
@@ -21657,7 +21072,6 @@
     </row>
     <row r="729" spans="1:26" ht="19.5" customHeight="1">
       <c r="A729" s="1"/>
-      <c r="B729" s="1"/>
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
@@ -21685,7 +21099,6 @@
     </row>
     <row r="730" spans="1:26" ht="19.5" customHeight="1">
       <c r="A730" s="1"/>
-      <c r="B730" s="1"/>
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
@@ -21713,7 +21126,6 @@
     </row>
     <row r="731" spans="1:26" ht="19.5" customHeight="1">
       <c r="A731" s="1"/>
-      <c r="B731" s="1"/>
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
@@ -21741,7 +21153,6 @@
     </row>
     <row r="732" spans="1:26" ht="19.5" customHeight="1">
       <c r="A732" s="1"/>
-      <c r="B732" s="1"/>
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
@@ -21769,7 +21180,6 @@
     </row>
     <row r="733" spans="1:26" ht="19.5" customHeight="1">
       <c r="A733" s="1"/>
-      <c r="B733" s="1"/>
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
@@ -21797,7 +21207,6 @@
     </row>
     <row r="734" spans="1:26" ht="19.5" customHeight="1">
       <c r="A734" s="1"/>
-      <c r="B734" s="1"/>
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
@@ -21825,7 +21234,6 @@
     </row>
     <row r="735" spans="1:26" ht="19.5" customHeight="1">
       <c r="A735" s="1"/>
-      <c r="B735" s="1"/>
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
@@ -21853,7 +21261,6 @@
     </row>
     <row r="736" spans="1:26" ht="19.5" customHeight="1">
       <c r="A736" s="1"/>
-      <c r="B736" s="1"/>
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
@@ -21881,7 +21288,6 @@
     </row>
     <row r="737" spans="1:26" ht="19.5" customHeight="1">
       <c r="A737" s="1"/>
-      <c r="B737" s="1"/>
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
@@ -21909,7 +21315,6 @@
     </row>
     <row r="738" spans="1:26" ht="19.5" customHeight="1">
       <c r="A738" s="1"/>
-      <c r="B738" s="1"/>
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
@@ -21937,7 +21342,6 @@
     </row>
     <row r="739" spans="1:26" ht="19.5" customHeight="1">
       <c r="A739" s="1"/>
-      <c r="B739" s="1"/>
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
@@ -21965,7 +21369,6 @@
     </row>
     <row r="740" spans="1:26" ht="19.5" customHeight="1">
       <c r="A740" s="1"/>
-      <c r="B740" s="1"/>
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
@@ -21993,7 +21396,6 @@
     </row>
     <row r="741" spans="1:26" ht="19.5" customHeight="1">
       <c r="A741" s="1"/>
-      <c r="B741" s="1"/>
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
@@ -22021,7 +21423,6 @@
     </row>
     <row r="742" spans="1:26" ht="19.5" customHeight="1">
       <c r="A742" s="1"/>
-      <c r="B742" s="1"/>
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
@@ -22049,7 +21450,6 @@
     </row>
     <row r="743" spans="1:26" ht="19.5" customHeight="1">
       <c r="A743" s="1"/>
-      <c r="B743" s="1"/>
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
@@ -22077,7 +21477,6 @@
     </row>
     <row r="744" spans="1:26" ht="19.5" customHeight="1">
       <c r="A744" s="1"/>
-      <c r="B744" s="1"/>
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
@@ -22105,7 +21504,6 @@
     </row>
     <row r="745" spans="1:26" ht="19.5" customHeight="1">
       <c r="A745" s="1"/>
-      <c r="B745" s="1"/>
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
@@ -22133,7 +21531,6 @@
     </row>
     <row r="746" spans="1:26" ht="19.5" customHeight="1">
       <c r="A746" s="1"/>
-      <c r="B746" s="1"/>
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
@@ -22161,7 +21558,6 @@
     </row>
     <row r="747" spans="1:26" ht="19.5" customHeight="1">
       <c r="A747" s="1"/>
-      <c r="B747" s="1"/>
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
@@ -22189,7 +21585,6 @@
     </row>
     <row r="748" spans="1:26" ht="19.5" customHeight="1">
       <c r="A748" s="1"/>
-      <c r="B748" s="1"/>
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
@@ -22217,7 +21612,6 @@
     </row>
     <row r="749" spans="1:26" ht="19.5" customHeight="1">
       <c r="A749" s="1"/>
-      <c r="B749" s="1"/>
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
@@ -22245,7 +21639,6 @@
     </row>
     <row r="750" spans="1:26" ht="19.5" customHeight="1">
       <c r="A750" s="1"/>
-      <c r="B750" s="1"/>
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
@@ -22273,7 +21666,6 @@
     </row>
     <row r="751" spans="1:26" ht="19.5" customHeight="1">
       <c r="A751" s="1"/>
-      <c r="B751" s="1"/>
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
@@ -22301,7 +21693,6 @@
     </row>
     <row r="752" spans="1:26" ht="19.5" customHeight="1">
       <c r="A752" s="1"/>
-      <c r="B752" s="1"/>
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
@@ -22329,7 +21720,6 @@
     </row>
     <row r="753" spans="1:26" ht="19.5" customHeight="1">
       <c r="A753" s="1"/>
-      <c r="B753" s="1"/>
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
@@ -22357,7 +21747,6 @@
     </row>
     <row r="754" spans="1:26" ht="19.5" customHeight="1">
       <c r="A754" s="1"/>
-      <c r="B754" s="1"/>
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
@@ -22385,7 +21774,6 @@
     </row>
     <row r="755" spans="1:26" ht="19.5" customHeight="1">
       <c r="A755" s="1"/>
-      <c r="B755" s="1"/>
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
@@ -22413,7 +21801,6 @@
     </row>
     <row r="756" spans="1:26" ht="19.5" customHeight="1">
       <c r="A756" s="1"/>
-      <c r="B756" s="1"/>
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
@@ -22441,7 +21828,6 @@
     </row>
     <row r="757" spans="1:26" ht="19.5" customHeight="1">
       <c r="A757" s="1"/>
-      <c r="B757" s="1"/>
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
@@ -22469,7 +21855,6 @@
     </row>
     <row r="758" spans="1:26" ht="19.5" customHeight="1">
       <c r="A758" s="1"/>
-      <c r="B758" s="1"/>
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
@@ -22497,7 +21882,6 @@
     </row>
     <row r="759" spans="1:26" ht="19.5" customHeight="1">
       <c r="A759" s="1"/>
-      <c r="B759" s="1"/>
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
@@ -22525,7 +21909,6 @@
     </row>
     <row r="760" spans="1:26" ht="19.5" customHeight="1">
       <c r="A760" s="1"/>
-      <c r="B760" s="1"/>
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
@@ -22553,7 +21936,6 @@
     </row>
     <row r="761" spans="1:26" ht="19.5" customHeight="1">
       <c r="A761" s="1"/>
-      <c r="B761" s="1"/>
       <c r="C761" s="1"/>
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
@@ -22581,7 +21963,6 @@
     </row>
     <row r="762" spans="1:26" ht="19.5" customHeight="1">
       <c r="A762" s="1"/>
-      <c r="B762" s="1"/>
       <c r="C762" s="1"/>
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
@@ -22609,7 +21990,6 @@
     </row>
     <row r="763" spans="1:26" ht="19.5" customHeight="1">
       <c r="A763" s="1"/>
-      <c r="B763" s="1"/>
       <c r="C763" s="1"/>
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
@@ -22637,7 +22017,6 @@
     </row>
     <row r="764" spans="1:26" ht="19.5" customHeight="1">
       <c r="A764" s="1"/>
-      <c r="B764" s="1"/>
       <c r="C764" s="1"/>
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
@@ -22665,7 +22044,6 @@
     </row>
     <row r="765" spans="1:26" ht="19.5" customHeight="1">
       <c r="A765" s="1"/>
-      <c r="B765" s="1"/>
       <c r="C765" s="1"/>
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
@@ -22693,7 +22071,6 @@
     </row>
     <row r="766" spans="1:26" ht="19.5" customHeight="1">
       <c r="A766" s="1"/>
-      <c r="B766" s="1"/>
       <c r="C766" s="1"/>
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
@@ -22721,7 +22098,6 @@
     </row>
     <row r="767" spans="1:26" ht="19.5" customHeight="1">
       <c r="A767" s="1"/>
-      <c r="B767" s="1"/>
       <c r="C767" s="1"/>
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
@@ -22749,7 +22125,6 @@
     </row>
     <row r="768" spans="1:26" ht="19.5" customHeight="1">
       <c r="A768" s="1"/>
-      <c r="B768" s="1"/>
       <c r="C768" s="1"/>
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
@@ -22777,7 +22152,6 @@
     </row>
     <row r="769" spans="1:26" ht="19.5" customHeight="1">
       <c r="A769" s="1"/>
-      <c r="B769" s="1"/>
       <c r="C769" s="1"/>
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
@@ -22805,7 +22179,6 @@
     </row>
     <row r="770" spans="1:26" ht="19.5" customHeight="1">
       <c r="A770" s="1"/>
-      <c r="B770" s="1"/>
       <c r="C770" s="1"/>
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
@@ -22833,7 +22206,6 @@
     </row>
     <row r="771" spans="1:26" ht="19.5" customHeight="1">
       <c r="A771" s="1"/>
-      <c r="B771" s="1"/>
       <c r="C771" s="1"/>
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
@@ -22861,7 +22233,6 @@
     </row>
     <row r="772" spans="1:26" ht="19.5" customHeight="1">
       <c r="A772" s="1"/>
-      <c r="B772" s="1"/>
       <c r="C772" s="1"/>
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
@@ -22889,7 +22260,6 @@
     </row>
     <row r="773" spans="1:26" ht="19.5" customHeight="1">
       <c r="A773" s="1"/>
-      <c r="B773" s="1"/>
       <c r="C773" s="1"/>
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
@@ -22917,7 +22287,6 @@
     </row>
     <row r="774" spans="1:26" ht="19.5" customHeight="1">
       <c r="A774" s="1"/>
-      <c r="B774" s="1"/>
       <c r="C774" s="1"/>
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
@@ -22945,7 +22314,6 @@
     </row>
     <row r="775" spans="1:26" ht="19.5" customHeight="1">
       <c r="A775" s="1"/>
-      <c r="B775" s="1"/>
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
@@ -22973,7 +22341,6 @@
     </row>
     <row r="776" spans="1:26" ht="19.5" customHeight="1">
       <c r="A776" s="1"/>
-      <c r="B776" s="1"/>
       <c r="C776" s="1"/>
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
@@ -23001,7 +22368,6 @@
     </row>
     <row r="777" spans="1:26" ht="19.5" customHeight="1">
       <c r="A777" s="1"/>
-      <c r="B777" s="1"/>
       <c r="C777" s="1"/>
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
@@ -23029,7 +22395,6 @@
     </row>
     <row r="778" spans="1:26" ht="19.5" customHeight="1">
       <c r="A778" s="1"/>
-      <c r="B778" s="1"/>
       <c r="C778" s="1"/>
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
@@ -23057,7 +22422,6 @@
     </row>
     <row r="779" spans="1:26" ht="19.5" customHeight="1">
       <c r="A779" s="1"/>
-      <c r="B779" s="1"/>
       <c r="C779" s="1"/>
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
@@ -23085,7 +22449,6 @@
     </row>
     <row r="780" spans="1:26" ht="19.5" customHeight="1">
       <c r="A780" s="1"/>
-      <c r="B780" s="1"/>
       <c r="C780" s="1"/>
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
@@ -23113,7 +22476,6 @@
     </row>
     <row r="781" spans="1:26" ht="19.5" customHeight="1">
       <c r="A781" s="1"/>
-      <c r="B781" s="1"/>
       <c r="C781" s="1"/>
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
@@ -23141,7 +22503,6 @@
     </row>
     <row r="782" spans="1:26" ht="19.5" customHeight="1">
       <c r="A782" s="1"/>
-      <c r="B782" s="1"/>
       <c r="C782" s="1"/>
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
@@ -23169,7 +22530,6 @@
     </row>
     <row r="783" spans="1:26" ht="19.5" customHeight="1">
       <c r="A783" s="1"/>
-      <c r="B783" s="1"/>
       <c r="C783" s="1"/>
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
@@ -23197,7 +22557,6 @@
     </row>
     <row r="784" spans="1:26" ht="19.5" customHeight="1">
       <c r="A784" s="1"/>
-      <c r="B784" s="1"/>
       <c r="C784" s="1"/>
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
@@ -23225,7 +22584,6 @@
     </row>
     <row r="785" spans="1:26" ht="19.5" customHeight="1">
       <c r="A785" s="1"/>
-      <c r="B785" s="1"/>
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
@@ -23253,7 +22611,6 @@
     </row>
     <row r="786" spans="1:26" ht="19.5" customHeight="1">
       <c r="A786" s="1"/>
-      <c r="B786" s="1"/>
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
@@ -23281,7 +22638,6 @@
     </row>
     <row r="787" spans="1:26" ht="19.5" customHeight="1">
       <c r="A787" s="1"/>
-      <c r="B787" s="1"/>
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
@@ -23309,7 +22665,6 @@
     </row>
     <row r="788" spans="1:26" ht="19.5" customHeight="1">
       <c r="A788" s="1"/>
-      <c r="B788" s="1"/>
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
@@ -23337,7 +22692,6 @@
     </row>
     <row r="789" spans="1:26" ht="19.5" customHeight="1">
       <c r="A789" s="1"/>
-      <c r="B789" s="1"/>
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
@@ -23365,7 +22719,6 @@
     </row>
     <row r="790" spans="1:26" ht="19.5" customHeight="1">
       <c r="A790" s="1"/>
-      <c r="B790" s="1"/>
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
@@ -23393,7 +22746,6 @@
     </row>
     <row r="791" spans="1:26" ht="19.5" customHeight="1">
       <c r="A791" s="1"/>
-      <c r="B791" s="1"/>
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
@@ -23421,7 +22773,6 @@
     </row>
     <row r="792" spans="1:26" ht="19.5" customHeight="1">
       <c r="A792" s="1"/>
-      <c r="B792" s="1"/>
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
@@ -23449,7 +22800,6 @@
     </row>
     <row r="793" spans="1:26" ht="19.5" customHeight="1">
       <c r="A793" s="1"/>
-      <c r="B793" s="1"/>
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
@@ -23477,7 +22827,6 @@
     </row>
     <row r="794" spans="1:26" ht="19.5" customHeight="1">
       <c r="A794" s="1"/>
-      <c r="B794" s="1"/>
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
@@ -23505,7 +22854,6 @@
     </row>
     <row r="795" spans="1:26" ht="19.5" customHeight="1">
       <c r="A795" s="1"/>
-      <c r="B795" s="1"/>
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
@@ -23533,7 +22881,6 @@
     </row>
     <row r="796" spans="1:26" ht="19.5" customHeight="1">
       <c r="A796" s="1"/>
-      <c r="B796" s="1"/>
       <c r="C796" s="1"/>
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
@@ -23561,7 +22908,6 @@
     </row>
     <row r="797" spans="1:26" ht="19.5" customHeight="1">
       <c r="A797" s="1"/>
-      <c r="B797" s="1"/>
       <c r="C797" s="1"/>
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
@@ -23589,7 +22935,6 @@
     </row>
     <row r="798" spans="1:26" ht="19.5" customHeight="1">
       <c r="A798" s="1"/>
-      <c r="B798" s="1"/>
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
@@ -23617,7 +22962,6 @@
     </row>
     <row r="799" spans="1:26" ht="19.5" customHeight="1">
       <c r="A799" s="1"/>
-      <c r="B799" s="1"/>
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
@@ -23645,7 +22989,6 @@
     </row>
     <row r="800" spans="1:26" ht="19.5" customHeight="1">
       <c r="A800" s="1"/>
-      <c r="B800" s="1"/>
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
@@ -23673,7 +23016,6 @@
     </row>
     <row r="801" spans="1:26" ht="19.5" customHeight="1">
       <c r="A801" s="1"/>
-      <c r="B801" s="1"/>
       <c r="C801" s="1"/>
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
@@ -23701,7 +23043,6 @@
     </row>
     <row r="802" spans="1:26" ht="19.5" customHeight="1">
       <c r="A802" s="1"/>
-      <c r="B802" s="1"/>
       <c r="C802" s="1"/>
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
@@ -23729,7 +23070,6 @@
     </row>
     <row r="803" spans="1:26" ht="19.5" customHeight="1">
       <c r="A803" s="1"/>
-      <c r="B803" s="1"/>
       <c r="C803" s="1"/>
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
@@ -23757,7 +23097,6 @@
     </row>
     <row r="804" spans="1:26" ht="19.5" customHeight="1">
       <c r="A804" s="1"/>
-      <c r="B804" s="1"/>
       <c r="C804" s="1"/>
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
@@ -23785,7 +23124,6 @@
     </row>
     <row r="805" spans="1:26" ht="19.5" customHeight="1">
       <c r="A805" s="1"/>
-      <c r="B805" s="1"/>
       <c r="C805" s="1"/>
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
@@ -23813,7 +23151,6 @@
     </row>
     <row r="806" spans="1:26" ht="19.5" customHeight="1">
       <c r="A806" s="1"/>
-      <c r="B806" s="1"/>
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
@@ -23841,7 +23178,6 @@
     </row>
     <row r="807" spans="1:26" ht="19.5" customHeight="1">
       <c r="A807" s="1"/>
-      <c r="B807" s="1"/>
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
@@ -23869,7 +23205,6 @@
     </row>
     <row r="808" spans="1:26" ht="19.5" customHeight="1">
       <c r="A808" s="1"/>
-      <c r="B808" s="1"/>
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
@@ -23897,7 +23232,6 @@
     </row>
     <row r="809" spans="1:26" ht="19.5" customHeight="1">
       <c r="A809" s="1"/>
-      <c r="B809" s="1"/>
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
@@ -23925,7 +23259,6 @@
     </row>
     <row r="810" spans="1:26" ht="19.5" customHeight="1">
       <c r="A810" s="1"/>
-      <c r="B810" s="1"/>
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
@@ -23953,7 +23286,6 @@
     </row>
     <row r="811" spans="1:26" ht="19.5" customHeight="1">
       <c r="A811" s="1"/>
-      <c r="B811" s="1"/>
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
@@ -23981,7 +23313,6 @@
     </row>
     <row r="812" spans="1:26" ht="19.5" customHeight="1">
       <c r="A812" s="1"/>
-      <c r="B812" s="1"/>
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
@@ -24009,7 +23340,6 @@
     </row>
     <row r="813" spans="1:26" ht="19.5" customHeight="1">
       <c r="A813" s="1"/>
-      <c r="B813" s="1"/>
       <c r="C813" s="1"/>
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
@@ -24037,7 +23367,6 @@
     </row>
     <row r="814" spans="1:26" ht="19.5" customHeight="1">
       <c r="A814" s="1"/>
-      <c r="B814" s="1"/>
       <c r="C814" s="1"/>
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
@@ -24065,7 +23394,6 @@
     </row>
     <row r="815" spans="1:26" ht="19.5" customHeight="1">
       <c r="A815" s="1"/>
-      <c r="B815" s="1"/>
       <c r="C815" s="1"/>
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
@@ -24093,7 +23421,6 @@
     </row>
     <row r="816" spans="1:26" ht="19.5" customHeight="1">
       <c r="A816" s="1"/>
-      <c r="B816" s="1"/>
       <c r="C816" s="1"/>
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
@@ -24121,7 +23448,6 @@
     </row>
     <row r="817" spans="1:26" ht="19.5" customHeight="1">
       <c r="A817" s="1"/>
-      <c r="B817" s="1"/>
       <c r="C817" s="1"/>
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
@@ -24149,7 +23475,6 @@
     </row>
     <row r="818" spans="1:26" ht="19.5" customHeight="1">
       <c r="A818" s="1"/>
-      <c r="B818" s="1"/>
       <c r="C818" s="1"/>
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
@@ -24177,7 +23502,6 @@
     </row>
     <row r="819" spans="1:26" ht="19.5" customHeight="1">
       <c r="A819" s="1"/>
-      <c r="B819" s="1"/>
       <c r="C819" s="1"/>
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
@@ -24205,7 +23529,6 @@
     </row>
     <row r="820" spans="1:26" ht="19.5" customHeight="1">
       <c r="A820" s="1"/>
-      <c r="B820" s="1"/>
       <c r="C820" s="1"/>
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
@@ -24233,7 +23556,6 @@
     </row>
     <row r="821" spans="1:26" ht="19.5" customHeight="1">
       <c r="A821" s="1"/>
-      <c r="B821" s="1"/>
       <c r="C821" s="1"/>
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
@@ -24261,7 +23583,6 @@
     </row>
     <row r="822" spans="1:26" ht="19.5" customHeight="1">
       <c r="A822" s="1"/>
-      <c r="B822" s="1"/>
       <c r="C822" s="1"/>
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
@@ -24289,7 +23610,6 @@
     </row>
     <row r="823" spans="1:26" ht="19.5" customHeight="1">
       <c r="A823" s="1"/>
-      <c r="B823" s="1"/>
       <c r="C823" s="1"/>
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
@@ -24317,7 +23637,6 @@
     </row>
     <row r="824" spans="1:26" ht="19.5" customHeight="1">
       <c r="A824" s="1"/>
-      <c r="B824" s="1"/>
       <c r="C824" s="1"/>
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
@@ -24345,7 +23664,6 @@
     </row>
     <row r="825" spans="1:26" ht="19.5" customHeight="1">
       <c r="A825" s="1"/>
-      <c r="B825" s="1"/>
       <c r="C825" s="1"/>
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
@@ -24373,7 +23691,6 @@
     </row>
     <row r="826" spans="1:26" ht="19.5" customHeight="1">
       <c r="A826" s="1"/>
-      <c r="B826" s="1"/>
       <c r="C826" s="1"/>
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
@@ -24401,7 +23718,6 @@
     </row>
     <row r="827" spans="1:26" ht="19.5" customHeight="1">
       <c r="A827" s="1"/>
-      <c r="B827" s="1"/>
       <c r="C827" s="1"/>
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
@@ -24429,7 +23745,6 @@
     </row>
     <row r="828" spans="1:26" ht="19.5" customHeight="1">
       <c r="A828" s="1"/>
-      <c r="B828" s="1"/>
       <c r="C828" s="1"/>
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
@@ -24457,7 +23772,6 @@
     </row>
     <row r="829" spans="1:26" ht="19.5" customHeight="1">
       <c r="A829" s="1"/>
-      <c r="B829" s="1"/>
       <c r="C829" s="1"/>
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
@@ -24485,7 +23799,6 @@
     </row>
     <row r="830" spans="1:26" ht="19.5" customHeight="1">
       <c r="A830" s="1"/>
-      <c r="B830" s="1"/>
       <c r="C830" s="1"/>
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
@@ -24513,7 +23826,6 @@
     </row>
     <row r="831" spans="1:26" ht="19.5" customHeight="1">
       <c r="A831" s="1"/>
-      <c r="B831" s="1"/>
       <c r="C831" s="1"/>
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
@@ -24541,7 +23853,6 @@
     </row>
     <row r="832" spans="1:26" ht="19.5" customHeight="1">
       <c r="A832" s="1"/>
-      <c r="B832" s="1"/>
       <c r="C832" s="1"/>
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
@@ -24569,7 +23880,6 @@
     </row>
     <row r="833" spans="1:26" ht="19.5" customHeight="1">
       <c r="A833" s="1"/>
-      <c r="B833" s="1"/>
       <c r="C833" s="1"/>
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
@@ -24597,7 +23907,6 @@
     </row>
     <row r="834" spans="1:26" ht="19.5" customHeight="1">
       <c r="A834" s="1"/>
-      <c r="B834" s="1"/>
       <c r="C834" s="1"/>
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
@@ -24625,7 +23934,6 @@
     </row>
     <row r="835" spans="1:26" ht="19.5" customHeight="1">
       <c r="A835" s="1"/>
-      <c r="B835" s="1"/>
       <c r="C835" s="1"/>
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
@@ -24653,7 +23961,6 @@
     </row>
     <row r="836" spans="1:26" ht="19.5" customHeight="1">
       <c r="A836" s="1"/>
-      <c r="B836" s="1"/>
       <c r="C836" s="1"/>
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
@@ -24681,7 +23988,6 @@
     </row>
     <row r="837" spans="1:26" ht="19.5" customHeight="1">
       <c r="A837" s="1"/>
-      <c r="B837" s="1"/>
       <c r="C837" s="1"/>
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
@@ -24709,7 +24015,6 @@
     </row>
     <row r="838" spans="1:26" ht="19.5" customHeight="1">
       <c r="A838" s="1"/>
-      <c r="B838" s="1"/>
       <c r="C838" s="1"/>
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
@@ -24737,7 +24042,6 @@
     </row>
     <row r="839" spans="1:26" ht="19.5" customHeight="1">
       <c r="A839" s="1"/>
-      <c r="B839" s="1"/>
       <c r="C839" s="1"/>
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
@@ -24765,7 +24069,6 @@
     </row>
     <row r="840" spans="1:26" ht="19.5" customHeight="1">
       <c r="A840" s="1"/>
-      <c r="B840" s="1"/>
       <c r="C840" s="1"/>
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
@@ -24793,7 +24096,6 @@
     </row>
     <row r="841" spans="1:26" ht="19.5" customHeight="1">
       <c r="A841" s="1"/>
-      <c r="B841" s="1"/>
       <c r="C841" s="1"/>
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
@@ -24821,7 +24123,6 @@
     </row>
     <row r="842" spans="1:26" ht="19.5" customHeight="1">
       <c r="A842" s="1"/>
-      <c r="B842" s="1"/>
       <c r="C842" s="1"/>
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
@@ -24849,7 +24150,6 @@
     </row>
     <row r="843" spans="1:26" ht="19.5" customHeight="1">
       <c r="A843" s="1"/>
-      <c r="B843" s="1"/>
       <c r="C843" s="1"/>
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
@@ -24877,7 +24177,6 @@
     </row>
     <row r="844" spans="1:26" ht="19.5" customHeight="1">
       <c r="A844" s="1"/>
-      <c r="B844" s="1"/>
       <c r="C844" s="1"/>
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
@@ -24905,7 +24204,6 @@
     </row>
     <row r="845" spans="1:26" ht="19.5" customHeight="1">
       <c r="A845" s="1"/>
-      <c r="B845" s="1"/>
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
@@ -24933,7 +24231,6 @@
     </row>
     <row r="846" spans="1:26" ht="19.5" customHeight="1">
       <c r="A846" s="1"/>
-      <c r="B846" s="1"/>
       <c r="C846" s="1"/>
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
@@ -24961,7 +24258,6 @@
     </row>
     <row r="847" spans="1:26" ht="19.5" customHeight="1">
       <c r="A847" s="1"/>
-      <c r="B847" s="1"/>
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
@@ -24989,7 +24285,6 @@
     </row>
     <row r="848" spans="1:26" ht="19.5" customHeight="1">
       <c r="A848" s="1"/>
-      <c r="B848" s="1"/>
       <c r="C848" s="1"/>
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
@@ -25017,7 +24312,6 @@
     </row>
     <row r="849" spans="1:26" ht="19.5" customHeight="1">
       <c r="A849" s="1"/>
-      <c r="B849" s="1"/>
       <c r="C849" s="1"/>
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
@@ -25045,7 +24339,6 @@
     </row>
     <row r="850" spans="1:26" ht="19.5" customHeight="1">
       <c r="A850" s="1"/>
-      <c r="B850" s="1"/>
       <c r="C850" s="1"/>
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
@@ -25073,7 +24366,6 @@
     </row>
     <row r="851" spans="1:26" ht="19.5" customHeight="1">
       <c r="A851" s="1"/>
-      <c r="B851" s="1"/>
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
@@ -25101,7 +24393,6 @@
     </row>
     <row r="852" spans="1:26" ht="19.5" customHeight="1">
       <c r="A852" s="1"/>
-      <c r="B852" s="1"/>
       <c r="C852" s="1"/>
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
@@ -25129,7 +24420,6 @@
     </row>
     <row r="853" spans="1:26" ht="19.5" customHeight="1">
       <c r="A853" s="1"/>
-      <c r="B853" s="1"/>
       <c r="C853" s="1"/>
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
@@ -25157,7 +24447,6 @@
     </row>
     <row r="854" spans="1:26" ht="19.5" customHeight="1">
       <c r="A854" s="1"/>
-      <c r="B854" s="1"/>
       <c r="C854" s="1"/>
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
@@ -25185,7 +24474,6 @@
     </row>
     <row r="855" spans="1:26" ht="19.5" customHeight="1">
       <c r="A855" s="1"/>
-      <c r="B855" s="1"/>
       <c r="C855" s="1"/>
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
@@ -25213,7 +24501,6 @@
     </row>
     <row r="856" spans="1:26" ht="19.5" customHeight="1">
       <c r="A856" s="1"/>
-      <c r="B856" s="1"/>
       <c r="C856" s="1"/>
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
@@ -25241,7 +24528,6 @@
     </row>
     <row r="857" spans="1:26" ht="19.5" customHeight="1">
       <c r="A857" s="1"/>
-      <c r="B857" s="1"/>
       <c r="C857" s="1"/>
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
@@ -25269,7 +24555,6 @@
     </row>
     <row r="858" spans="1:26" ht="19.5" customHeight="1">
       <c r="A858" s="1"/>
-      <c r="B858" s="1"/>
       <c r="C858" s="1"/>
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
@@ -25297,7 +24582,6 @@
     </row>
     <row r="859" spans="1:26" ht="19.5" customHeight="1">
       <c r="A859" s="1"/>
-      <c r="B859" s="1"/>
       <c r="C859" s="1"/>
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
@@ -25325,7 +24609,6 @@
     </row>
     <row r="860" spans="1:26" ht="19.5" customHeight="1">
       <c r="A860" s="1"/>
-      <c r="B860" s="1"/>
       <c r="C860" s="1"/>
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
@@ -25353,7 +24636,6 @@
     </row>
     <row r="861" spans="1:26" ht="19.5" customHeight="1">
       <c r="A861" s="1"/>
-      <c r="B861" s="1"/>
       <c r="C861" s="1"/>
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
@@ -25381,7 +24663,6 @@
     </row>
     <row r="862" spans="1:26" ht="19.5" customHeight="1">
       <c r="A862" s="1"/>
-      <c r="B862" s="1"/>
       <c r="C862" s="1"/>
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
@@ -25409,7 +24690,6 @@
     </row>
     <row r="863" spans="1:26" ht="19.5" customHeight="1">
       <c r="A863" s="1"/>
-      <c r="B863" s="1"/>
       <c r="C863" s="1"/>
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
@@ -25437,7 +24717,6 @@
     </row>
     <row r="864" spans="1:26" ht="19.5" customHeight="1">
       <c r="A864" s="1"/>
-      <c r="B864" s="1"/>
       <c r="C864" s="1"/>
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
@@ -25465,7 +24744,6 @@
     </row>
     <row r="865" spans="1:26" ht="19.5" customHeight="1">
       <c r="A865" s="1"/>
-      <c r="B865" s="1"/>
       <c r="C865" s="1"/>
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
@@ -25493,7 +24771,6 @@
     </row>
     <row r="866" spans="1:26" ht="19.5" customHeight="1">
       <c r="A866" s="1"/>
-      <c r="B866" s="1"/>
       <c r="C866" s="1"/>
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
@@ -25521,7 +24798,6 @@
     </row>
     <row r="867" spans="1:26" ht="19.5" customHeight="1">
       <c r="A867" s="1"/>
-      <c r="B867" s="1"/>
       <c r="C867" s="1"/>
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
@@ -25549,7 +24825,6 @@
     </row>
     <row r="868" spans="1:26" ht="19.5" customHeight="1">
       <c r="A868" s="1"/>
-      <c r="B868" s="1"/>
       <c r="C868" s="1"/>
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
@@ -25577,7 +24852,6 @@
     </row>
     <row r="869" spans="1:26" ht="19.5" customHeight="1">
       <c r="A869" s="1"/>
-      <c r="B869" s="1"/>
       <c r="C869" s="1"/>
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
@@ -25605,7 +24879,6 @@
     </row>
     <row r="870" spans="1:26" ht="19.5" customHeight="1">
       <c r="A870" s="1"/>
-      <c r="B870" s="1"/>
       <c r="C870" s="1"/>
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
@@ -25633,7 +24906,6 @@
     </row>
     <row r="871" spans="1:26" ht="19.5" customHeight="1">
       <c r="A871" s="1"/>
-      <c r="B871" s="1"/>
       <c r="C871" s="1"/>
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
@@ -25661,7 +24933,6 @@
     </row>
     <row r="872" spans="1:26" ht="19.5" customHeight="1">
       <c r="A872" s="1"/>
-      <c r="B872" s="1"/>
       <c r="C872" s="1"/>
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
@@ -25689,7 +24960,6 @@
     </row>
     <row r="873" spans="1:26" ht="19.5" customHeight="1">
       <c r="A873" s="1"/>
-      <c r="B873" s="1"/>
       <c r="C873" s="1"/>
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
@@ -25717,7 +24987,6 @@
     </row>
     <row r="874" spans="1:26" ht="19.5" customHeight="1">
       <c r="A874" s="1"/>
-      <c r="B874" s="1"/>
       <c r="C874" s="1"/>
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
@@ -25745,7 +25014,6 @@
     </row>
     <row r="875" spans="1:26" ht="19.5" customHeight="1">
       <c r="A875" s="1"/>
-      <c r="B875" s="1"/>
       <c r="C875" s="1"/>
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
@@ -25773,7 +25041,6 @@
     </row>
     <row r="876" spans="1:26" ht="19.5" customHeight="1">
       <c r="A876" s="1"/>
-      <c r="B876" s="1"/>
       <c r="C876" s="1"/>
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
@@ -25801,7 +25068,6 @@
     </row>
     <row r="877" spans="1:26" ht="19.5" customHeight="1">
       <c r="A877" s="1"/>
-      <c r="B877" s="1"/>
       <c r="C877" s="1"/>
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
@@ -25829,7 +25095,6 @@
     </row>
     <row r="878" spans="1:26" ht="19.5" customHeight="1">
       <c r="A878" s="1"/>
-      <c r="B878" s="1"/>
       <c r="C878" s="1"/>
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
@@ -25857,7 +25122,6 @@
     </row>
     <row r="879" spans="1:26" ht="19.5" customHeight="1">
       <c r="A879" s="1"/>
-      <c r="B879" s="1"/>
       <c r="C879" s="1"/>
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
@@ -25885,7 +25149,6 @@
     </row>
     <row r="880" spans="1:26" ht="19.5" customHeight="1">
       <c r="A880" s="1"/>
-      <c r="B880" s="1"/>
       <c r="C880" s="1"/>
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
@@ -25913,7 +25176,6 @@
     </row>
     <row r="881" spans="1:26" ht="19.5" customHeight="1">
       <c r="A881" s="1"/>
-      <c r="B881" s="1"/>
       <c r="C881" s="1"/>
       <c r="D881" s="1"/>
       <c r="E881" s="1"/>
@@ -25941,7 +25203,6 @@
     </row>
     <row r="882" spans="1:26" ht="19.5" customHeight="1">
       <c r="A882" s="1"/>
-      <c r="B882" s="1"/>
       <c r="C882" s="1"/>
       <c r="D882" s="1"/>
       <c r="E882" s="1"/>
@@ -25969,7 +25230,6 @@
     </row>
     <row r="883" spans="1:26" ht="19.5" customHeight="1">
       <c r="A883" s="1"/>
-      <c r="B883" s="1"/>
       <c r="C883" s="1"/>
       <c r="D883" s="1"/>
       <c r="E883" s="1"/>
@@ -25997,7 +25257,6 @@
     </row>
     <row r="884" spans="1:26" ht="19.5" customHeight="1">
       <c r="A884" s="1"/>
-      <c r="B884" s="1"/>
       <c r="C884" s="1"/>
       <c r="D884" s="1"/>
       <c r="E884" s="1"/>
@@ -26025,7 +25284,6 @@
     </row>
     <row r="885" spans="1:26" ht="19.5" customHeight="1">
       <c r="A885" s="1"/>
-      <c r="B885" s="1"/>
       <c r="C885" s="1"/>
       <c r="D885" s="1"/>
       <c r="E885" s="1"/>
@@ -26053,7 +25311,6 @@
     </row>
     <row r="886" spans="1:26" ht="19.5" customHeight="1">
       <c r="A886" s="1"/>
-      <c r="B886" s="1"/>
       <c r="C886" s="1"/>
       <c r="D886" s="1"/>
       <c r="E886" s="1"/>
@@ -26081,7 +25338,6 @@
     </row>
     <row r="887" spans="1:26" ht="19.5" customHeight="1">
       <c r="A887" s="1"/>
-      <c r="B887" s="1"/>
       <c r="C887" s="1"/>
       <c r="D887" s="1"/>
       <c r="E887" s="1"/>
@@ -26109,7 +25365,6 @@
     </row>
     <row r="888" spans="1:26" ht="19.5" customHeight="1">
       <c r="A888" s="1"/>
-      <c r="B888" s="1"/>
       <c r="C888" s="1"/>
       <c r="D888" s="1"/>
       <c r="E888" s="1"/>
@@ -26137,7 +25392,6 @@
     </row>
     <row r="889" spans="1:26" ht="19.5" customHeight="1">
       <c r="A889" s="1"/>
-      <c r="B889" s="1"/>
       <c r="C889" s="1"/>
       <c r="D889" s="1"/>
       <c r="E889" s="1"/>
@@ -26165,7 +25419,6 @@
     </row>
     <row r="890" spans="1:26" ht="19.5" customHeight="1">
       <c r="A890" s="1"/>
-      <c r="B890" s="1"/>
       <c r="C890" s="1"/>
       <c r="D890" s="1"/>
       <c r="E890" s="1"/>
@@ -26193,7 +25446,6 @@
     </row>
     <row r="891" spans="1:26" ht="19.5" customHeight="1">
       <c r="A891" s="1"/>
-      <c r="B891" s="1"/>
       <c r="C891" s="1"/>
       <c r="D891" s="1"/>
       <c r="E891" s="1"/>
@@ -26221,7 +25473,6 @@
     </row>
     <row r="892" spans="1:26" ht="19.5" customHeight="1">
       <c r="A892" s="1"/>
-      <c r="B892" s="1"/>
       <c r="C892" s="1"/>
       <c r="D892" s="1"/>
       <c r="E892" s="1"/>
@@ -26249,7 +25500,6 @@
     </row>
     <row r="893" spans="1:26" ht="19.5" customHeight="1">
       <c r="A893" s="1"/>
-      <c r="B893" s="1"/>
       <c r="C893" s="1"/>
       <c r="D893" s="1"/>
       <c r="E893" s="1"/>
@@ -26277,7 +25527,6 @@
     </row>
     <row r="894" spans="1:26" ht="19.5" customHeight="1">
       <c r="A894" s="1"/>
-      <c r="B894" s="1"/>
       <c r="C894" s="1"/>
       <c r="D894" s="1"/>
       <c r="E894" s="1"/>
@@ -26305,7 +25554,6 @@
     </row>
     <row r="895" spans="1:26" ht="19.5" customHeight="1">
       <c r="A895" s="1"/>
-      <c r="B895" s="1"/>
       <c r="C895" s="1"/>
       <c r="D895" s="1"/>
       <c r="E895" s="1"/>
@@ -26333,7 +25581,6 @@
     </row>
     <row r="896" spans="1:26" ht="19.5" customHeight="1">
       <c r="A896" s="1"/>
-      <c r="B896" s="1"/>
       <c r="C896" s="1"/>
       <c r="D896" s="1"/>
       <c r="E896" s="1"/>
@@ -26361,7 +25608,6 @@
     </row>
     <row r="897" spans="1:26" ht="19.5" customHeight="1">
       <c r="A897" s="1"/>
-      <c r="B897" s="1"/>
       <c r="C897" s="1"/>
       <c r="D897" s="1"/>
       <c r="E897" s="1"/>
@@ -26389,7 +25635,6 @@
     </row>
     <row r="898" spans="1:26" ht="19.5" customHeight="1">
       <c r="A898" s="1"/>
-      <c r="B898" s="1"/>
       <c r="C898" s="1"/>
       <c r="D898" s="1"/>
       <c r="E898" s="1"/>
@@ -26417,7 +25662,6 @@
     </row>
     <row r="899" spans="1:26" ht="19.5" customHeight="1">
       <c r="A899" s="1"/>
-      <c r="B899" s="1"/>
       <c r="C899" s="1"/>
       <c r="D899" s="1"/>
       <c r="E899" s="1"/>
@@ -26445,7 +25689,6 @@
     </row>
     <row r="900" spans="1:26" ht="19.5" customHeight="1">
       <c r="A900" s="1"/>
-      <c r="B900" s="1"/>
       <c r="C900" s="1"/>
       <c r="D900" s="1"/>
       <c r="E900" s="1"/>
@@ -26473,7 +25716,6 @@
     </row>
     <row r="901" spans="1:26" ht="19.5" customHeight="1">
       <c r="A901" s="1"/>
-      <c r="B901" s="1"/>
       <c r="C901" s="1"/>
       <c r="D901" s="1"/>
       <c r="E901" s="1"/>
@@ -26501,7 +25743,6 @@
     </row>
     <row r="902" spans="1:26" ht="19.5" customHeight="1">
       <c r="A902" s="1"/>
-      <c r="B902" s="1"/>
       <c r="C902" s="1"/>
       <c r="D902" s="1"/>
       <c r="E902" s="1"/>
@@ -26529,7 +25770,6 @@
     </row>
     <row r="903" spans="1:26" ht="19.5" customHeight="1">
       <c r="A903" s="1"/>
-      <c r="B903" s="1"/>
       <c r="C903" s="1"/>
       <c r="D903" s="1"/>
       <c r="E903" s="1"/>
@@ -26557,7 +25797,6 @@
     </row>
     <row r="904" spans="1:26" ht="19.5" customHeight="1">
       <c r="A904" s="1"/>
-      <c r="B904" s="1"/>
       <c r="C904" s="1"/>
       <c r="D904" s="1"/>
       <c r="E904" s="1"/>
@@ -26585,7 +25824,6 @@
     </row>
     <row r="905" spans="1:26" ht="19.5" customHeight="1">
       <c r="A905" s="1"/>
-      <c r="B905" s="1"/>
       <c r="C905" s="1"/>
       <c r="D905" s="1"/>
       <c r="E905" s="1"/>
@@ -26613,7 +25851,6 @@
     </row>
     <row r="906" spans="1:26" ht="19.5" customHeight="1">
       <c r="A906" s="1"/>
-      <c r="B906" s="1"/>
       <c r="C906" s="1"/>
       <c r="D906" s="1"/>
       <c r="E906" s="1"/>
@@ -26641,7 +25878,6 @@
     </row>
     <row r="907" spans="1:26" ht="19.5" customHeight="1">
       <c r="A907" s="1"/>
-      <c r="B907" s="1"/>
       <c r="C907" s="1"/>
       <c r="D907" s="1"/>
       <c r="E907" s="1"/>
@@ -26669,7 +25905,6 @@
     </row>
     <row r="908" spans="1:26" ht="19.5" customHeight="1">
       <c r="A908" s="1"/>
-      <c r="B908" s="1"/>
       <c r="C908" s="1"/>
       <c r="D908" s="1"/>
       <c r="E908" s="1"/>
@@ -26697,7 +25932,6 @@
     </row>
     <row r="909" spans="1:26" ht="19.5" customHeight="1">
       <c r="A909" s="1"/>
-      <c r="B909" s="1"/>
       <c r="C909" s="1"/>
       <c r="D909" s="1"/>
       <c r="E909" s="1"/>
@@ -26725,7 +25959,6 @@
     </row>
     <row r="910" spans="1:26" ht="19.5" customHeight="1">
       <c r="A910" s="1"/>
-      <c r="B910" s="1"/>
       <c r="C910" s="1"/>
       <c r="D910" s="1"/>
       <c r="E910" s="1"/>
@@ -26753,7 +25986,6 @@
     </row>
     <row r="911" spans="1:26" ht="19.5" customHeight="1">
       <c r="A911" s="1"/>
-      <c r="B911" s="1"/>
       <c r="C911" s="1"/>
       <c r="D911" s="1"/>
       <c r="E911" s="1"/>
@@ -26781,7 +26013,6 @@
     </row>
     <row r="912" spans="1:26" ht="19.5" customHeight="1">
       <c r="A912" s="1"/>
-      <c r="B912" s="1"/>
       <c r="C912" s="1"/>
       <c r="D912" s="1"/>
       <c r="E912" s="1"/>
@@ -26809,7 +26040,6 @@
     </row>
     <row r="913" spans="1:26" ht="19.5" customHeight="1">
       <c r="A913" s="1"/>
-      <c r="B913" s="1"/>
       <c r="C913" s="1"/>
       <c r="D913" s="1"/>
       <c r="E913" s="1"/>
@@ -26837,7 +26067,6 @@
     </row>
     <row r="914" spans="1:26" ht="19.5" customHeight="1">
       <c r="A914" s="1"/>
-      <c r="B914" s="1"/>
       <c r="C914" s="1"/>
       <c r="D914" s="1"/>
       <c r="E914" s="1"/>
@@ -26865,7 +26094,6 @@
     </row>
     <row r="915" spans="1:26" ht="19.5" customHeight="1">
       <c r="A915" s="1"/>
-      <c r="B915" s="1"/>
       <c r="C915" s="1"/>
       <c r="D915" s="1"/>
       <c r="E915" s="1"/>
@@ -26893,7 +26121,6 @@
     </row>
     <row r="916" spans="1:26" ht="19.5" customHeight="1">
       <c r="A916" s="1"/>
-      <c r="B916" s="1"/>
       <c r="C916" s="1"/>
       <c r="D916" s="1"/>
       <c r="E916" s="1"/>
@@ -26921,7 +26148,6 @@
     </row>
     <row r="917" spans="1:26" ht="19.5" customHeight="1">
       <c r="A917" s="1"/>
-      <c r="B917" s="1"/>
       <c r="C917" s="1"/>
       <c r="D917" s="1"/>
       <c r="E917" s="1"/>
@@ -26949,7 +26175,6 @@
     </row>
     <row r="918" spans="1:26" ht="19.5" customHeight="1">
       <c r="A918" s="1"/>
-      <c r="B918" s="1"/>
       <c r="C918" s="1"/>
       <c r="D918" s="1"/>
       <c r="E918" s="1"/>
@@ -26977,7 +26202,6 @@
     </row>
     <row r="919" spans="1:26" ht="19.5" customHeight="1">
       <c r="A919" s="1"/>
-      <c r="B919" s="1"/>
       <c r="C919" s="1"/>
       <c r="D919" s="1"/>
       <c r="E919" s="1"/>
@@ -27005,7 +26229,6 @@
     </row>
     <row r="920" spans="1:26" ht="19.5" customHeight="1">
       <c r="A920" s="1"/>
-      <c r="B920" s="1"/>
       <c r="C920" s="1"/>
       <c r="D920" s="1"/>
       <c r="E920" s="1"/>
@@ -27033,7 +26256,6 @@
     </row>
     <row r="921" spans="1:26" ht="19.5" customHeight="1">
       <c r="A921" s="1"/>
-      <c r="B921" s="1"/>
       <c r="C921" s="1"/>
       <c r="D921" s="1"/>
       <c r="E921" s="1"/>
@@ -27061,7 +26283,6 @@
     </row>
     <row r="922" spans="1:26" ht="19.5" customHeight="1">
       <c r="A922" s="1"/>
-      <c r="B922" s="1"/>
       <c r="C922" s="1"/>
       <c r="D922" s="1"/>
       <c r="E922" s="1"/>
@@ -27089,7 +26310,6 @@
     </row>
     <row r="923" spans="1:26" ht="19.5" customHeight="1">
       <c r="A923" s="1"/>
-      <c r="B923" s="1"/>
       <c r="C923" s="1"/>
       <c r="D923" s="1"/>
       <c r="E923" s="1"/>
@@ -27117,7 +26337,6 @@
     </row>
     <row r="924" spans="1:26" ht="19.5" customHeight="1">
       <c r="A924" s="1"/>
-      <c r="B924" s="1"/>
       <c r="C924" s="1"/>
       <c r="D924" s="1"/>
       <c r="E924" s="1"/>
@@ -27145,7 +26364,6 @@
     </row>
     <row r="925" spans="1:26" ht="19.5" customHeight="1">
       <c r="A925" s="1"/>
-      <c r="B925" s="1"/>
       <c r="C925" s="1"/>
       <c r="D925" s="1"/>
       <c r="E925" s="1"/>
@@ -27173,7 +26391,6 @@
     </row>
     <row r="926" spans="1:26" ht="19.5" customHeight="1">
       <c r="A926" s="1"/>
-      <c r="B926" s="1"/>
       <c r="C926" s="1"/>
       <c r="D926" s="1"/>
       <c r="E926" s="1"/>
@@ -27201,7 +26418,6 @@
     </row>
     <row r="927" spans="1:26" ht="19.5" customHeight="1">
       <c r="A927" s="1"/>
-      <c r="B927" s="1"/>
       <c r="C927" s="1"/>
       <c r="D927" s="1"/>
       <c r="E927" s="1"/>
@@ -27229,7 +26445,6 @@
     </row>
     <row r="928" spans="1:26" ht="19.5" customHeight="1">
       <c r="A928" s="1"/>
-      <c r="B928" s="1"/>
       <c r="C928" s="1"/>
       <c r="D928" s="1"/>
       <c r="E928" s="1"/>
@@ -27257,7 +26472,6 @@
     </row>
     <row r="929" spans="1:26" ht="19.5" customHeight="1">
       <c r="A929" s="1"/>
-      <c r="B929" s="1"/>
       <c r="C929" s="1"/>
       <c r="D929" s="1"/>
       <c r="E929" s="1"/>
@@ -27285,7 +26499,6 @@
     </row>
     <row r="930" spans="1:26" ht="19.5" customHeight="1">
       <c r="A930" s="1"/>
-      <c r="B930" s="1"/>
       <c r="C930" s="1"/>
       <c r="D930" s="1"/>
       <c r="E930" s="1"/>
@@ -27313,7 +26526,6 @@
     </row>
     <row r="931" spans="1:26" ht="19.5" customHeight="1">
       <c r="A931" s="1"/>
-      <c r="B931" s="1"/>
       <c r="C931" s="1"/>
       <c r="D931" s="1"/>
       <c r="E931" s="1"/>
@@ -27341,7 +26553,6 @@
     </row>
     <row r="932" spans="1:26" ht="19.5" customHeight="1">
       <c r="A932" s="1"/>
-      <c r="B932" s="1"/>
       <c r="C932" s="1"/>
       <c r="D932" s="1"/>
       <c r="E932" s="1"/>
@@ -27369,7 +26580,6 @@
     </row>
     <row r="933" spans="1:26" ht="19.5" customHeight="1">
       <c r="A933" s="1"/>
-      <c r="B933" s="1"/>
       <c r="C933" s="1"/>
       <c r="D933" s="1"/>
       <c r="E933" s="1"/>
@@ -27397,7 +26607,6 @@
     </row>
     <row r="934" spans="1:26" ht="19.5" customHeight="1">
       <c r="A934" s="1"/>
-      <c r="B934" s="1"/>
       <c r="C934" s="1"/>
       <c r="D934" s="1"/>
       <c r="E934" s="1"/>
@@ -27425,7 +26634,6 @@
     </row>
     <row r="935" spans="1:26" ht="19.5" customHeight="1">
       <c r="A935" s="1"/>
-      <c r="B935" s="1"/>
       <c r="C935" s="1"/>
       <c r="D935" s="1"/>
       <c r="E935" s="1"/>
@@ -27453,7 +26661,6 @@
     </row>
     <row r="936" spans="1:26" ht="19.5" customHeight="1">
       <c r="A936" s="1"/>
-      <c r="B936" s="1"/>
       <c r="C936" s="1"/>
       <c r="D936" s="1"/>
       <c r="E936" s="1"/>
@@ -27481,7 +26688,6 @@
     </row>
     <row r="937" spans="1:26" ht="19.5" customHeight="1">
       <c r="A937" s="1"/>
-      <c r="B937" s="1"/>
       <c r="C937" s="1"/>
       <c r="D937" s="1"/>
       <c r="E937" s="1"/>
@@ -27509,7 +26715,6 @@
     </row>
     <row r="938" spans="1:26" ht="19.5" customHeight="1">
       <c r="A938" s="1"/>
-      <c r="B938" s="1"/>
       <c r="C938" s="1"/>
       <c r="D938" s="1"/>
       <c r="E938" s="1"/>
@@ -27537,7 +26742,6 @@
     </row>
     <row r="939" spans="1:26" ht="19.5" customHeight="1">
       <c r="A939" s="1"/>
-      <c r="B939" s="1"/>
       <c r="C939" s="1"/>
       <c r="D939" s="1"/>
       <c r="E939" s="1"/>
@@ -27565,7 +26769,6 @@
     </row>
     <row r="940" spans="1:26" ht="19.5" customHeight="1">
       <c r="A940" s="1"/>
-      <c r="B940" s="1"/>
       <c r="C940" s="1"/>
       <c r="D940" s="1"/>
       <c r="E940" s="1"/>
@@ -27593,7 +26796,6 @@
     </row>
     <row r="941" spans="1:26" ht="19.5" customHeight="1">
       <c r="A941" s="1"/>
-      <c r="B941" s="1"/>
       <c r="C941" s="1"/>
       <c r="D941" s="1"/>
       <c r="E941" s="1"/>
@@ -27621,7 +26823,6 @@
     </row>
     <row r="942" spans="1:26" ht="19.5" customHeight="1">
       <c r="A942" s="1"/>
-      <c r="B942" s="1"/>
       <c r="C942" s="1"/>
       <c r="D942" s="1"/>
       <c r="E942" s="1"/>
@@ -27649,7 +26850,6 @@
     </row>
     <row r="943" spans="1:26" ht="19.5" customHeight="1">
       <c r="A943" s="1"/>
-      <c r="B943" s="1"/>
       <c r="C943" s="1"/>
       <c r="D943" s="1"/>
       <c r="E943" s="1"/>
@@ -27677,7 +26877,6 @@
     </row>
     <row r="944" spans="1:26" ht="19.5" customHeight="1">
       <c r="A944" s="1"/>
-      <c r="B944" s="1"/>
       <c r="C944" s="1"/>
       <c r="D944" s="1"/>
       <c r="E944" s="1"/>
@@ -27705,7 +26904,6 @@
     </row>
     <row r="945" spans="1:26" ht="19.5" customHeight="1">
       <c r="A945" s="1"/>
-      <c r="B945" s="1"/>
       <c r="C945" s="1"/>
       <c r="D945" s="1"/>
       <c r="E945" s="1"/>
@@ -27733,7 +26931,6 @@
     </row>
     <row r="946" spans="1:26" ht="19.5" customHeight="1">
       <c r="A946" s="1"/>
-      <c r="B946" s="1"/>
       <c r="C946" s="1"/>
       <c r="D946" s="1"/>
       <c r="E946" s="1"/>
@@ -27761,7 +26958,6 @@
     </row>
     <row r="947" spans="1:26" ht="19.5" customHeight="1">
       <c r="A947" s="1"/>
-      <c r="B947" s="1"/>
       <c r="C947" s="1"/>
       <c r="D947" s="1"/>
       <c r="E947" s="1"/>
@@ -27789,7 +26985,6 @@
     </row>
     <row r="948" spans="1:26" ht="19.5" customHeight="1">
       <c r="A948" s="1"/>
-      <c r="B948" s="1"/>
       <c r="C948" s="1"/>
       <c r="D948" s="1"/>
       <c r="E948" s="1"/>
@@ -27817,7 +27012,6 @@
     </row>
     <row r="949" spans="1:26" ht="19.5" customHeight="1">
       <c r="A949" s="1"/>
-      <c r="B949" s="1"/>
       <c r="C949" s="1"/>
       <c r="D949" s="1"/>
       <c r="E949" s="1"/>
@@ -27845,7 +27039,6 @@
     </row>
     <row r="950" spans="1:26" ht="19.5" customHeight="1">
       <c r="A950" s="1"/>
-      <c r="B950" s="1"/>
       <c r="C950" s="1"/>
       <c r="D950" s="1"/>
       <c r="E950" s="1"/>
@@ -27873,7 +27066,6 @@
     </row>
     <row r="951" spans="1:26" ht="19.5" customHeight="1">
       <c r="A951" s="1"/>
-      <c r="B951" s="1"/>
       <c r="C951" s="1"/>
       <c r="D951" s="1"/>
       <c r="E951" s="1"/>
@@ -27901,7 +27093,6 @@
     </row>
     <row r="952" spans="1:26" ht="19.5" customHeight="1">
       <c r="A952" s="1"/>
-      <c r="B952" s="1"/>
       <c r="C952" s="1"/>
       <c r="D952" s="1"/>
       <c r="E952" s="1"/>
@@ -27929,7 +27120,6 @@
     </row>
     <row r="953" spans="1:26" ht="19.5" customHeight="1">
       <c r="A953" s="1"/>
-      <c r="B953" s="1"/>
       <c r="C953" s="1"/>
       <c r="D953" s="1"/>
       <c r="E953" s="1"/>
@@ -27957,7 +27147,6 @@
     </row>
     <row r="954" spans="1:26" ht="19.5" customHeight="1">
       <c r="A954" s="1"/>
-      <c r="B954" s="1"/>
       <c r="C954" s="1"/>
       <c r="D954" s="1"/>
       <c r="E954" s="1"/>
@@ -27985,7 +27174,6 @@
     </row>
     <row r="955" spans="1:26" ht="19.5" customHeight="1">
       <c r="A955" s="1"/>
-      <c r="B955" s="1"/>
       <c r="C955" s="1"/>
       <c r="D955" s="1"/>
       <c r="E955" s="1"/>
@@ -28013,7 +27201,6 @@
     </row>
     <row r="956" spans="1:26" ht="19.5" customHeight="1">
       <c r="A956" s="1"/>
-      <c r="B956" s="1"/>
       <c r="C956" s="1"/>
       <c r="D956" s="1"/>
       <c r="E956" s="1"/>
@@ -28041,7 +27228,6 @@
     </row>
     <row r="957" spans="1:26" ht="19.5" customHeight="1">
       <c r="A957" s="1"/>
-      <c r="B957" s="1"/>
       <c r="C957" s="1"/>
       <c r="D957" s="1"/>
       <c r="E957" s="1"/>
@@ -28069,7 +27255,6 @@
     </row>
     <row r="958" spans="1:26" ht="19.5" customHeight="1">
       <c r="A958" s="1"/>
-      <c r="B958" s="1"/>
       <c r="C958" s="1"/>
       <c r="D958" s="1"/>
       <c r="E958" s="1"/>
@@ -28097,7 +27282,6 @@
     </row>
     <row r="959" spans="1:26" ht="19.5" customHeight="1">
       <c r="A959" s="1"/>
-      <c r="B959" s="1"/>
       <c r="C959" s="1"/>
       <c r="D959" s="1"/>
       <c r="E959" s="1"/>
@@ -28125,7 +27309,6 @@
     </row>
     <row r="960" spans="1:26" ht="19.5" customHeight="1">
       <c r="A960" s="1"/>
-      <c r="B960" s="1"/>
       <c r="C960" s="1"/>
       <c r="D960" s="1"/>
       <c r="E960" s="1"/>
@@ -28153,7 +27336,6 @@
     </row>
     <row r="961" spans="1:26" ht="19.5" customHeight="1">
       <c r="A961" s="1"/>
-      <c r="B961" s="1"/>
       <c r="C961" s="1"/>
       <c r="D961" s="1"/>
       <c r="E961" s="1"/>
@@ -28181,7 +27363,6 @@
     </row>
     <row r="962" spans="1:26" ht="19.5" customHeight="1">
       <c r="A962" s="1"/>
-      <c r="B962" s="1"/>
       <c r="C962" s="1"/>
       <c r="D962" s="1"/>
       <c r="E962" s="1"/>
@@ -28209,7 +27390,6 @@
     </row>
     <row r="963" spans="1:26" ht="19.5" customHeight="1">
       <c r="A963" s="1"/>
-      <c r="B963" s="1"/>
       <c r="C963" s="1"/>
       <c r="D963" s="1"/>
       <c r="E963" s="1"/>
@@ -28237,7 +27417,6 @@
     </row>
     <row r="964" spans="1:26" ht="19.5" customHeight="1">
       <c r="A964" s="1"/>
-      <c r="B964" s="1"/>
       <c r="C964" s="1"/>
       <c r="D964" s="1"/>
       <c r="E964" s="1"/>
@@ -28265,7 +27444,6 @@
     </row>
     <row r="965" spans="1:26" ht="19.5" customHeight="1">
       <c r="A965" s="1"/>
-      <c r="B965" s="1"/>
       <c r="C965" s="1"/>
       <c r="D965" s="1"/>
       <c r="E965" s="1"/>
@@ -28293,7 +27471,6 @@
     </row>
     <row r="966" spans="1:26" ht="19.5" customHeight="1">
       <c r="A966" s="1"/>
-      <c r="B966" s="1"/>
       <c r="C966" s="1"/>
       <c r="D966" s="1"/>
       <c r="E966" s="1"/>
@@ -28321,7 +27498,6 @@
     </row>
     <row r="967" spans="1:26" ht="19.5" customHeight="1">
       <c r="A967" s="1"/>
-      <c r="B967" s="1"/>
       <c r="C967" s="1"/>
       <c r="D967" s="1"/>
       <c r="E967" s="1"/>
@@ -28349,7 +27525,6 @@
     </row>
     <row r="968" spans="1:26" ht="19.5" customHeight="1">
       <c r="A968" s="1"/>
-      <c r="B968" s="1"/>
       <c r="C968" s="1"/>
       <c r="D968" s="1"/>
       <c r="E968" s="1"/>
@@ -28377,7 +27552,6 @@
     </row>
     <row r="969" spans="1:26" ht="19.5" customHeight="1">
       <c r="A969" s="1"/>
-      <c r="B969" s="1"/>
       <c r="C969" s="1"/>
       <c r="D969" s="1"/>
       <c r="E969" s="1"/>
@@ -28405,7 +27579,6 @@
     </row>
     <row r="970" spans="1:26" ht="19.5" customHeight="1">
       <c r="A970" s="1"/>
-      <c r="B970" s="1"/>
       <c r="C970" s="1"/>
       <c r="D970" s="1"/>
       <c r="E970" s="1"/>
@@ -28433,7 +27606,6 @@
     </row>
     <row r="971" spans="1:26" ht="19.5" customHeight="1">
       <c r="A971" s="1"/>
-      <c r="B971" s="1"/>
       <c r="C971" s="1"/>
       <c r="D971" s="1"/>
       <c r="E971" s="1"/>
@@ -28461,7 +27633,6 @@
     </row>
     <row r="972" spans="1:26" ht="19.5" customHeight="1">
       <c r="A972" s="1"/>
-      <c r="B972" s="1"/>
       <c r="C972" s="1"/>
       <c r="D972" s="1"/>
       <c r="E972" s="1"/>
@@ -28489,7 +27660,6 @@
     </row>
     <row r="973" spans="1:26" ht="19.5" customHeight="1">
       <c r="A973" s="1"/>
-      <c r="B973" s="1"/>
       <c r="C973" s="1"/>
       <c r="D973" s="1"/>
       <c r="E973" s="1"/>
@@ -28517,7 +27687,6 @@
     </row>
     <row r="974" spans="1:26" ht="19.5" customHeight="1">
       <c r="A974" s="1"/>
-      <c r="B974" s="1"/>
       <c r="C974" s="1"/>
       <c r="D974" s="1"/>
       <c r="E974" s="1"/>
@@ -28545,7 +27714,6 @@
     </row>
     <row r="975" spans="1:26" ht="19.5" customHeight="1">
       <c r="A975" s="1"/>
-      <c r="B975" s="1"/>
       <c r="C975" s="1"/>
       <c r="D975" s="1"/>
       <c r="E975" s="1"/>
@@ -28573,7 +27741,6 @@
     </row>
     <row r="976" spans="1:26" ht="19.5" customHeight="1">
       <c r="A976" s="1"/>
-      <c r="B976" s="1"/>
       <c r="C976" s="1"/>
       <c r="D976" s="1"/>
       <c r="E976" s="1"/>
@@ -28601,7 +27768,6 @@
     </row>
     <row r="977" spans="1:26" ht="19.5" customHeight="1">
       <c r="A977" s="1"/>
-      <c r="B977" s="1"/>
       <c r="C977" s="1"/>
       <c r="D977" s="1"/>
       <c r="E977" s="1"/>
@@ -28629,7 +27795,6 @@
     </row>
     <row r="978" spans="1:26" ht="19.5" customHeight="1">
       <c r="A978" s="1"/>
-      <c r="B978" s="1"/>
       <c r="C978" s="1"/>
       <c r="D978" s="1"/>
       <c r="E978" s="1"/>
@@ -28657,7 +27822,6 @@
     </row>
     <row r="979" spans="1:26" ht="19.5" customHeight="1">
       <c r="A979" s="1"/>
-      <c r="B979" s="1"/>
       <c r="C979" s="1"/>
       <c r="D979" s="1"/>
       <c r="E979" s="1"/>
@@ -28685,7 +27849,6 @@
     </row>
     <row r="980" spans="1:26" ht="19.5" customHeight="1">
       <c r="A980" s="1"/>
-      <c r="B980" s="1"/>
       <c r="C980" s="1"/>
       <c r="D980" s="1"/>
       <c r="E980" s="1"/>
@@ -28713,7 +27876,6 @@
     </row>
     <row r="981" spans="1:26" ht="19.5" customHeight="1">
       <c r="A981" s="1"/>
-      <c r="B981" s="1"/>
       <c r="C981" s="1"/>
       <c r="D981" s="1"/>
       <c r="E981" s="1"/>
@@ -28741,7 +27903,6 @@
     </row>
     <row r="982" spans="1:26" ht="19.5" customHeight="1">
       <c r="A982" s="1"/>
-      <c r="B982" s="1"/>
       <c r="C982" s="1"/>
       <c r="D982" s="1"/>
       <c r="E982" s="1"/>
@@ -28769,7 +27930,6 @@
     </row>
     <row r="983" spans="1:26" ht="19.5" customHeight="1">
       <c r="A983" s="1"/>
-      <c r="B983" s="1"/>
       <c r="C983" s="1"/>
       <c r="D983" s="1"/>
       <c r="E983" s="1"/>
@@ -28797,7 +27957,6 @@
     </row>
     <row r="984" spans="1:26" ht="19.5" customHeight="1">
       <c r="A984" s="1"/>
-      <c r="B984" s="1"/>
       <c r="C984" s="1"/>
       <c r="D984" s="1"/>
       <c r="E984" s="1"/>
@@ -28825,7 +27984,6 @@
     </row>
     <row r="985" spans="1:26" ht="19.5" customHeight="1">
       <c r="A985" s="1"/>
-      <c r="B985" s="1"/>
       <c r="C985" s="1"/>
       <c r="D985" s="1"/>
       <c r="E985" s="1"/>
@@ -28853,7 +28011,6 @@
     </row>
     <row r="986" spans="1:26" ht="19.5" customHeight="1">
       <c r="A986" s="1"/>
-      <c r="B986" s="1"/>
       <c r="C986" s="1"/>
       <c r="D986" s="1"/>
       <c r="E986" s="1"/>
@@ -28881,7 +28038,6 @@
     </row>
     <row r="987" spans="1:26" ht="19.5" customHeight="1">
       <c r="A987" s="1"/>
-      <c r="B987" s="1"/>
       <c r="C987" s="1"/>
       <c r="D987" s="1"/>
       <c r="E987" s="1"/>
@@ -28909,7 +28065,6 @@
     </row>
     <row r="988" spans="1:26" ht="19.5" customHeight="1">
       <c r="A988" s="1"/>
-      <c r="B988" s="1"/>
       <c r="C988" s="1"/>
       <c r="D988" s="1"/>
       <c r="E988" s="1"/>
@@ -28937,7 +28092,6 @@
     </row>
     <row r="989" spans="1:26" ht="19.5" customHeight="1">
       <c r="A989" s="1"/>
-      <c r="B989" s="1"/>
       <c r="C989" s="1"/>
       <c r="D989" s="1"/>
       <c r="E989" s="1"/>
@@ -28965,7 +28119,6 @@
     </row>
     <row r="990" spans="1:26" ht="19.5" customHeight="1">
       <c r="A990" s="1"/>
-      <c r="B990" s="1"/>
       <c r="C990" s="1"/>
       <c r="D990" s="1"/>
       <c r="E990" s="1"/>
@@ -28993,7 +28146,6 @@
     </row>
     <row r="991" spans="1:26" ht="19.5" customHeight="1">
       <c r="A991" s="1"/>
-      <c r="B991" s="1"/>
       <c r="C991" s="1"/>
       <c r="D991" s="1"/>
       <c r="E991" s="1"/>
@@ -29021,7 +28173,6 @@
     </row>
     <row r="992" spans="1:26" ht="19.5" customHeight="1">
       <c r="A992" s="1"/>
-      <c r="B992" s="1"/>
       <c r="C992" s="1"/>
       <c r="D992" s="1"/>
       <c r="E992" s="1"/>
@@ -29049,7 +28200,6 @@
     </row>
     <row r="993" spans="1:26" ht="19.5" customHeight="1">
       <c r="A993" s="1"/>
-      <c r="B993" s="1"/>
       <c r="C993" s="1"/>
       <c r="D993" s="1"/>
       <c r="E993" s="1"/>
@@ -29077,7 +28227,6 @@
     </row>
     <row r="994" spans="1:26" ht="19.5" customHeight="1">
       <c r="A994" s="1"/>
-      <c r="B994" s="1"/>
       <c r="C994" s="1"/>
       <c r="D994" s="1"/>
       <c r="E994" s="1"/>
@@ -29105,7 +28254,6 @@
     </row>
     <row r="995" spans="1:26" ht="19.5" customHeight="1">
       <c r="A995" s="1"/>
-      <c r="B995" s="1"/>
       <c r="C995" s="1"/>
       <c r="D995" s="1"/>
       <c r="E995" s="1"/>
@@ -29131,68 +28279,10 @@
       <c r="Y995" s="1"/>
       <c r="Z995" s="1"/>
     </row>
-    <row r="996" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A996" s="1"/>
-      <c r="B996" s="1"/>
-      <c r="C996" s="1"/>
-      <c r="D996" s="1"/>
-      <c r="E996" s="1"/>
-      <c r="F996" s="1"/>
-      <c r="G996" s="1"/>
-      <c r="H996" s="1"/>
-      <c r="I996" s="1"/>
-      <c r="J996" s="1"/>
-      <c r="K996" s="1"/>
-      <c r="L996" s="1"/>
-      <c r="M996" s="1"/>
-      <c r="N996" s="1"/>
-      <c r="O996" s="1"/>
-      <c r="P996" s="1"/>
-      <c r="Q996" s="1"/>
-      <c r="R996" s="1"/>
-      <c r="S996" s="1"/>
-      <c r="T996" s="1"/>
-      <c r="U996" s="1"/>
-      <c r="V996" s="1"/>
-      <c r="W996" s="1"/>
-      <c r="X996" s="1"/>
-      <c r="Y996" s="1"/>
-      <c r="Z996" s="1"/>
-    </row>
-    <row r="997" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A997" s="1"/>
-      <c r="B997" s="1"/>
-      <c r="C997" s="1"/>
-      <c r="D997" s="1"/>
-      <c r="E997" s="1"/>
-      <c r="F997" s="1"/>
-      <c r="G997" s="1"/>
-      <c r="H997" s="1"/>
-      <c r="I997" s="1"/>
-      <c r="J997" s="1"/>
-      <c r="K997" s="1"/>
-      <c r="L997" s="1"/>
-      <c r="M997" s="1"/>
-      <c r="N997" s="1"/>
-      <c r="O997" s="1"/>
-      <c r="P997" s="1"/>
-      <c r="Q997" s="1"/>
-      <c r="R997" s="1"/>
-      <c r="S997" s="1"/>
-      <c r="T997" s="1"/>
-      <c r="U997" s="1"/>
-      <c r="V997" s="1"/>
-      <c r="W997" s="1"/>
-      <c r="X997" s="1"/>
-      <c r="Y997" s="1"/>
-      <c r="Z997" s="1"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:G26">
-    <sortCondition descending="1" ref="D1"/>
-  </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="48" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>
